--- a/Model_TopSim_RollerCoaster/RollerCoaster_Model_Definition.xlsx
+++ b/Model_TopSim_RollerCoaster/RollerCoaster_Model_Definition.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malteebner/Library/Mobile Documents/com~apple~CloudDocs/Master ETIT/10. Semester/Forschungsarbeit/Code Forschungsarbeit/Model_TopSim_RollerCoaster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAC68A1-B0E8-C443-AB0A-C365E8B7C690}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20828310-54E3-9C4D-B59A-0090486618B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="1380" windowWidth="32100" windowHeight="16120" xr2:uid="{FCED99B0-49FF-5541-B4A0-4C6030238B64}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FCED99B0-49FF-5541-B4A0-4C6030238B64}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Schedule" sheetId="1" r:id="rId1"/>
+    <sheet name="Losses" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,18 +32,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>Project ID</t>
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Base_Duration</t>
-  </si>
-  <si>
-    <t>Base_Cost</t>
   </si>
   <si>
     <t>technology</t>
@@ -235,6 +230,33 @@
   </si>
   <si>
     <t>44; 45</t>
+  </si>
+  <si>
+    <t>DurationDelta</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>LossToAdd</t>
+  </si>
+  <si>
+    <t>TechnologyDelta</t>
+  </si>
+  <si>
+    <t>QualityDelta</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>cost</t>
   </si>
 </sst>
 </file>
@@ -588,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A15AD41-7732-DC45-B8B2-B8C789AA2988}">
   <dimension ref="A1:AN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,16 +761,16 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
         <v>10</v>
-      </c>
-      <c r="O2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
@@ -759,67 +781,67 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" t="s">
-        <v>5</v>
-      </c>
       <c r="N3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" t="s">
         <v>2</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" t="s">
-        <v>5</v>
-      </c>
       <c r="S3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V3" t="s">
         <v>2</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>3</v>
       </c>
-      <c r="V3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W3" t="s">
-        <v>5</v>
-      </c>
       <c r="X3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -827,10 +849,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -844,6 +866,9 @@
       <c r="H4">
         <v>0</v>
       </c>
+      <c r="I4">
+        <v>0.1</v>
+      </c>
       <c r="J4">
         <v>6</v>
       </c>
@@ -856,6 +881,9 @@
       <c r="M4">
         <v>-1</v>
       </c>
+      <c r="N4">
+        <v>0.2</v>
+      </c>
       <c r="O4">
         <v>5</v>
       </c>
@@ -868,6 +896,9 @@
       <c r="R4">
         <v>-2</v>
       </c>
+      <c r="S4">
+        <v>0.4</v>
+      </c>
       <c r="T4">
         <v>10</v>
       </c>
@@ -879,6 +910,9 @@
       </c>
       <c r="W4">
         <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.2">
@@ -886,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>65</v>
@@ -900,6 +934,9 @@
       <c r="H5">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>0.1</v>
+      </c>
       <c r="J5">
         <v>40</v>
       </c>
@@ -912,6 +949,9 @@
       <c r="M5">
         <v>1</v>
       </c>
+      <c r="N5">
+        <v>0.2</v>
+      </c>
       <c r="O5">
         <v>40</v>
       </c>
@@ -924,6 +964,9 @@
       <c r="R5">
         <v>2</v>
       </c>
+      <c r="S5">
+        <v>0.4</v>
+      </c>
       <c r="T5">
         <v>40</v>
       </c>
@@ -935,6 +978,9 @@
       </c>
       <c r="W5">
         <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.2">
@@ -942,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -959,6 +1005,9 @@
       <c r="H6">
         <v>0</v>
       </c>
+      <c r="I6">
+        <v>0.1</v>
+      </c>
       <c r="J6">
         <v>6</v>
       </c>
@@ -971,6 +1020,9 @@
       <c r="M6">
         <v>0</v>
       </c>
+      <c r="N6">
+        <v>0.2</v>
+      </c>
       <c r="O6">
         <v>5</v>
       </c>
@@ -983,6 +1035,9 @@
       <c r="R6">
         <v>0</v>
       </c>
+      <c r="S6">
+        <v>0.4</v>
+      </c>
       <c r="T6">
         <v>9</v>
       </c>
@@ -994,6 +1049,9 @@
       </c>
       <c r="W6">
         <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
@@ -1001,10 +1059,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1018,6 +1076,9 @@
       <c r="H7">
         <v>0</v>
       </c>
+      <c r="I7">
+        <v>0.1</v>
+      </c>
       <c r="J7">
         <v>5</v>
       </c>
@@ -1030,6 +1091,9 @@
       <c r="M7">
         <v>0</v>
       </c>
+      <c r="N7">
+        <v>0.2</v>
+      </c>
       <c r="O7">
         <v>4</v>
       </c>
@@ -1042,6 +1106,9 @@
       <c r="R7">
         <v>0</v>
       </c>
+      <c r="S7">
+        <v>0.4</v>
+      </c>
       <c r="T7">
         <v>7</v>
       </c>
@@ -1053,6 +1120,9 @@
       </c>
       <c r="W7">
         <v>1</v>
+      </c>
+      <c r="X7">
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
@@ -1060,10 +1130,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1077,6 +1147,9 @@
       <c r="H8">
         <v>0</v>
       </c>
+      <c r="I8">
+        <v>0.1</v>
+      </c>
       <c r="J8">
         <v>6</v>
       </c>
@@ -1089,6 +1162,9 @@
       <c r="M8">
         <v>-1</v>
       </c>
+      <c r="N8">
+        <v>0.2</v>
+      </c>
       <c r="O8">
         <v>4</v>
       </c>
@@ -1101,6 +1177,9 @@
       <c r="R8">
         <v>-2</v>
       </c>
+      <c r="S8">
+        <v>0.4</v>
+      </c>
       <c r="T8">
         <v>8</v>
       </c>
@@ -1112,6 +1191,9 @@
       </c>
       <c r="W8">
         <v>1</v>
+      </c>
+      <c r="X8">
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -1119,10 +1201,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -1136,6 +1218,9 @@
       <c r="H9">
         <v>0</v>
       </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
       <c r="J9">
         <v>5</v>
       </c>
@@ -1148,6 +1233,9 @@
       <c r="M9">
         <v>0</v>
       </c>
+      <c r="N9">
+        <v>0.2</v>
+      </c>
       <c r="O9">
         <v>4</v>
       </c>
@@ -1160,6 +1248,9 @@
       <c r="R9">
         <v>0</v>
       </c>
+      <c r="S9">
+        <v>0.4</v>
+      </c>
       <c r="T9">
         <v>7</v>
       </c>
@@ -1171,6 +1262,9 @@
       </c>
       <c r="W9">
         <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
@@ -1178,7 +1272,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>11</v>
@@ -1195,6 +1289,9 @@
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="I10">
+        <v>0.1</v>
+      </c>
       <c r="J10">
         <v>2</v>
       </c>
@@ -1207,6 +1304,9 @@
       <c r="M10">
         <v>0</v>
       </c>
+      <c r="N10">
+        <v>0.2</v>
+      </c>
       <c r="O10">
         <v>1</v>
       </c>
@@ -1219,6 +1319,9 @@
       <c r="R10">
         <v>0</v>
       </c>
+      <c r="S10">
+        <v>0.4</v>
+      </c>
       <c r="T10">
         <v>5</v>
       </c>
@@ -1230,6 +1333,9 @@
       </c>
       <c r="W10">
         <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
@@ -1237,7 +1343,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>20</v>
@@ -1254,6 +1360,9 @@
       <c r="H11">
         <v>0</v>
       </c>
+      <c r="I11">
+        <v>0.1</v>
+      </c>
       <c r="J11">
         <v>3</v>
       </c>
@@ -1266,6 +1375,9 @@
       <c r="M11">
         <v>0</v>
       </c>
+      <c r="N11">
+        <v>0.2</v>
+      </c>
       <c r="O11">
         <v>2</v>
       </c>
@@ -1278,6 +1390,9 @@
       <c r="R11">
         <v>0</v>
       </c>
+      <c r="S11">
+        <v>0.4</v>
+      </c>
       <c r="T11">
         <v>5</v>
       </c>
@@ -1289,6 +1404,9 @@
       </c>
       <c r="W11">
         <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -1296,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -1313,6 +1431,9 @@
       <c r="H12">
         <v>0</v>
       </c>
+      <c r="I12">
+        <v>0.1</v>
+      </c>
       <c r="J12">
         <v>5</v>
       </c>
@@ -1325,6 +1446,9 @@
       <c r="M12">
         <v>0</v>
       </c>
+      <c r="N12">
+        <v>0.2</v>
+      </c>
       <c r="O12">
         <v>4</v>
       </c>
@@ -1337,6 +1461,9 @@
       <c r="R12">
         <v>0</v>
       </c>
+      <c r="S12">
+        <v>0.4</v>
+      </c>
       <c r="T12">
         <v>8</v>
       </c>
@@ -1348,6 +1475,9 @@
       </c>
       <c r="W12">
         <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
@@ -1355,7 +1485,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>22</v>
@@ -1372,6 +1502,9 @@
       <c r="H13">
         <v>0</v>
       </c>
+      <c r="I13">
+        <v>0.1</v>
+      </c>
       <c r="J13">
         <v>8</v>
       </c>
@@ -1384,6 +1517,9 @@
       <c r="M13">
         <v>1</v>
       </c>
+      <c r="N13">
+        <v>0.2</v>
+      </c>
       <c r="O13">
         <v>6</v>
       </c>
@@ -1396,6 +1532,9 @@
       <c r="R13">
         <v>-2</v>
       </c>
+      <c r="S13">
+        <v>0.4</v>
+      </c>
       <c r="T13">
         <v>9</v>
       </c>
@@ -1407,6 +1546,9 @@
       </c>
       <c r="W13">
         <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
@@ -1414,7 +1556,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>15</v>
@@ -1431,6 +1573,9 @@
       <c r="H14">
         <v>0</v>
       </c>
+      <c r="I14">
+        <v>0.1</v>
+      </c>
       <c r="J14">
         <v>3</v>
       </c>
@@ -1443,6 +1588,9 @@
       <c r="M14">
         <v>0</v>
       </c>
+      <c r="N14">
+        <v>0.2</v>
+      </c>
       <c r="O14">
         <v>2</v>
       </c>
@@ -1455,6 +1603,9 @@
       <c r="R14">
         <v>0</v>
       </c>
+      <c r="S14">
+        <v>0.4</v>
+      </c>
       <c r="T14">
         <v>6</v>
       </c>
@@ -1466,6 +1617,9 @@
       </c>
       <c r="W14">
         <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
@@ -1473,7 +1627,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>17</v>
@@ -1490,6 +1644,9 @@
       <c r="H15">
         <v>0</v>
       </c>
+      <c r="I15">
+        <v>0.1</v>
+      </c>
       <c r="J15">
         <v>4</v>
       </c>
@@ -1502,6 +1659,9 @@
       <c r="M15">
         <v>-1</v>
       </c>
+      <c r="N15">
+        <v>0.2</v>
+      </c>
       <c r="O15">
         <v>3</v>
       </c>
@@ -1514,6 +1674,9 @@
       <c r="R15">
         <v>-1</v>
       </c>
+      <c r="S15">
+        <v>0.4</v>
+      </c>
       <c r="T15">
         <v>7</v>
       </c>
@@ -1525,6 +1688,9 @@
       </c>
       <c r="W15">
         <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
@@ -1532,7 +1698,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>18</v>
@@ -1549,6 +1715,9 @@
       <c r="H16">
         <v>0</v>
       </c>
+      <c r="I16">
+        <v>0.1</v>
+      </c>
       <c r="J16">
         <v>5</v>
       </c>
@@ -1561,6 +1730,9 @@
       <c r="M16">
         <v>-1</v>
       </c>
+      <c r="N16">
+        <v>0.2</v>
+      </c>
       <c r="O16">
         <v>3</v>
       </c>
@@ -1573,6 +1745,9 @@
       <c r="R16">
         <v>-1</v>
       </c>
+      <c r="S16">
+        <v>0.4</v>
+      </c>
       <c r="T16">
         <v>8</v>
       </c>
@@ -1585,13 +1760,16 @@
       <c r="W16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>21</v>
@@ -1608,6 +1786,9 @@
       <c r="H17">
         <v>0</v>
       </c>
+      <c r="I17">
+        <v>0.1</v>
+      </c>
       <c r="J17">
         <v>18</v>
       </c>
@@ -1620,6 +1801,9 @@
       <c r="M17">
         <v>0</v>
       </c>
+      <c r="N17">
+        <v>0.2</v>
+      </c>
       <c r="O17">
         <v>16</v>
       </c>
@@ -1632,6 +1816,9 @@
       <c r="R17">
         <v>0</v>
       </c>
+      <c r="S17">
+        <v>0.4</v>
+      </c>
       <c r="T17">
         <v>24</v>
       </c>
@@ -1644,13 +1831,16 @@
       <c r="W17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>23</v>
@@ -1667,6 +1857,9 @@
       <c r="H18">
         <v>0</v>
       </c>
+      <c r="I18">
+        <v>0.1</v>
+      </c>
       <c r="J18">
         <v>7</v>
       </c>
@@ -1679,6 +1872,9 @@
       <c r="M18">
         <v>-1</v>
       </c>
+      <c r="N18">
+        <v>0.2</v>
+      </c>
       <c r="O18">
         <v>5</v>
       </c>
@@ -1691,6 +1887,9 @@
       <c r="R18">
         <v>-2</v>
       </c>
+      <c r="S18">
+        <v>0.4</v>
+      </c>
       <c r="T18">
         <v>10</v>
       </c>
@@ -1703,19 +1902,22 @@
       <c r="W18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>24</v>
       </c>
       <c r="E19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F19">
         <v>1100</v>
@@ -1726,6 +1928,9 @@
       <c r="H19">
         <v>0</v>
       </c>
+      <c r="I19">
+        <v>0.1</v>
+      </c>
       <c r="J19">
         <v>16</v>
       </c>
@@ -1738,6 +1943,9 @@
       <c r="M19">
         <v>-2</v>
       </c>
+      <c r="N19">
+        <v>0.2</v>
+      </c>
       <c r="O19">
         <v>12</v>
       </c>
@@ -1750,6 +1958,9 @@
       <c r="R19">
         <v>-2</v>
       </c>
+      <c r="S19">
+        <v>0.4</v>
+      </c>
       <c r="T19">
         <v>22</v>
       </c>
@@ -1762,13 +1973,16 @@
       <c r="W19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20">
         <v>26</v>
@@ -1785,6 +1999,9 @@
       <c r="H20">
         <v>0</v>
       </c>
+      <c r="I20">
+        <v>0.1</v>
+      </c>
       <c r="J20">
         <v>15</v>
       </c>
@@ -1797,6 +2014,9 @@
       <c r="M20">
         <v>0</v>
       </c>
+      <c r="N20">
+        <v>0.2</v>
+      </c>
       <c r="O20">
         <v>12</v>
       </c>
@@ -1809,6 +2029,9 @@
       <c r="R20">
         <v>-2</v>
       </c>
+      <c r="S20">
+        <v>0.4</v>
+      </c>
       <c r="T20">
         <v>18</v>
       </c>
@@ -1821,13 +2044,16 @@
       <c r="W20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>27</v>
@@ -1844,6 +2070,9 @@
       <c r="H21">
         <v>0</v>
       </c>
+      <c r="I21">
+        <v>0.1</v>
+      </c>
       <c r="J21">
         <v>15</v>
       </c>
@@ -1856,6 +2085,9 @@
       <c r="M21">
         <v>-1</v>
       </c>
+      <c r="N21">
+        <v>0.2</v>
+      </c>
       <c r="O21">
         <v>13</v>
       </c>
@@ -1868,6 +2100,9 @@
       <c r="R21">
         <v>-3</v>
       </c>
+      <c r="S21">
+        <v>0.4</v>
+      </c>
       <c r="T21">
         <v>19</v>
       </c>
@@ -1880,16 +2115,19 @@
       <c r="W21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E22">
         <v>8</v>
@@ -1903,6 +2141,9 @@
       <c r="H22">
         <v>0</v>
       </c>
+      <c r="I22">
+        <v>0.1</v>
+      </c>
       <c r="J22">
         <v>7</v>
       </c>
@@ -1915,6 +2156,9 @@
       <c r="M22">
         <v>-1</v>
       </c>
+      <c r="N22">
+        <v>0.2</v>
+      </c>
       <c r="O22">
         <v>6</v>
       </c>
@@ -1927,6 +2171,9 @@
       <c r="R22">
         <v>-1</v>
       </c>
+      <c r="S22">
+        <v>0.4</v>
+      </c>
       <c r="T22">
         <v>10</v>
       </c>
@@ -1939,13 +2186,16 @@
       <c r="W22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X22">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23">
         <v>29</v>
@@ -1962,6 +2212,9 @@
       <c r="H23">
         <v>0</v>
       </c>
+      <c r="I23">
+        <v>0.1</v>
+      </c>
       <c r="J23">
         <v>18</v>
       </c>
@@ -1974,6 +2227,9 @@
       <c r="M23">
         <v>-1</v>
       </c>
+      <c r="N23">
+        <v>0.2</v>
+      </c>
       <c r="O23">
         <v>16</v>
       </c>
@@ -1986,6 +2242,9 @@
       <c r="R23">
         <v>-2</v>
       </c>
+      <c r="S23">
+        <v>0.4</v>
+      </c>
       <c r="T23">
         <v>22</v>
       </c>
@@ -1998,13 +2257,16 @@
       <c r="W23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24">
         <v>25</v>
@@ -2021,6 +2283,9 @@
       <c r="H24">
         <v>0</v>
       </c>
+      <c r="I24">
+        <v>0.1</v>
+      </c>
       <c r="J24">
         <v>3</v>
       </c>
@@ -2033,6 +2298,9 @@
       <c r="M24">
         <v>-1</v>
       </c>
+      <c r="N24">
+        <v>0.2</v>
+      </c>
       <c r="O24">
         <v>2</v>
       </c>
@@ -2045,6 +2313,9 @@
       <c r="R24">
         <v>-1</v>
       </c>
+      <c r="S24">
+        <v>0.4</v>
+      </c>
       <c r="T24">
         <v>6</v>
       </c>
@@ -2057,13 +2328,16 @@
       <c r="W24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>31</v>
@@ -2080,6 +2354,9 @@
       <c r="H25">
         <v>0</v>
       </c>
+      <c r="I25">
+        <v>0.1</v>
+      </c>
       <c r="J25">
         <v>14</v>
       </c>
@@ -2092,6 +2369,9 @@
       <c r="M25">
         <v>-2</v>
       </c>
+      <c r="N25">
+        <v>0.2</v>
+      </c>
       <c r="O25">
         <v>12</v>
       </c>
@@ -2104,6 +2384,9 @@
       <c r="R25">
         <v>-3</v>
       </c>
+      <c r="S25">
+        <v>0.4</v>
+      </c>
       <c r="T25">
         <v>17</v>
       </c>
@@ -2116,13 +2399,16 @@
       <c r="W25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>32</v>
@@ -2139,6 +2425,9 @@
       <c r="H26">
         <v>0</v>
       </c>
+      <c r="I26">
+        <v>0.1</v>
+      </c>
       <c r="J26">
         <v>14</v>
       </c>
@@ -2151,6 +2440,9 @@
       <c r="M26">
         <v>-1</v>
       </c>
+      <c r="N26">
+        <v>0.2</v>
+      </c>
       <c r="O26">
         <v>11</v>
       </c>
@@ -2163,6 +2455,9 @@
       <c r="R26">
         <v>-2</v>
       </c>
+      <c r="S26">
+        <v>0.4</v>
+      </c>
       <c r="T26">
         <v>19</v>
       </c>
@@ -2175,13 +2470,16 @@
       <c r="W26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X26">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -2198,6 +2496,9 @@
       <c r="H27">
         <v>0</v>
       </c>
+      <c r="I27">
+        <v>0.1</v>
+      </c>
       <c r="J27">
         <v>7</v>
       </c>
@@ -2210,6 +2511,9 @@
       <c r="M27">
         <v>-1</v>
       </c>
+      <c r="N27">
+        <v>0.2</v>
+      </c>
       <c r="O27">
         <v>5</v>
       </c>
@@ -2222,6 +2526,9 @@
       <c r="R27">
         <v>-2</v>
       </c>
+      <c r="S27">
+        <v>0.4</v>
+      </c>
       <c r="T27">
         <v>10</v>
       </c>
@@ -2234,13 +2541,16 @@
       <c r="W27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X27">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>30</v>
@@ -2257,6 +2567,9 @@
       <c r="H28">
         <v>0</v>
       </c>
+      <c r="I28">
+        <v>0.1</v>
+      </c>
       <c r="J28">
         <v>2</v>
       </c>
@@ -2269,6 +2582,9 @@
       <c r="M28">
         <v>0</v>
       </c>
+      <c r="N28">
+        <v>0.2</v>
+      </c>
       <c r="O28">
         <v>1</v>
       </c>
@@ -2281,6 +2597,9 @@
       <c r="R28">
         <v>0</v>
       </c>
+      <c r="S28">
+        <v>0.4</v>
+      </c>
       <c r="T28">
         <v>5</v>
       </c>
@@ -2293,16 +2612,19 @@
       <c r="W28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>14</v>
@@ -2316,6 +2638,9 @@
       <c r="H29">
         <v>0</v>
       </c>
+      <c r="I29">
+        <v>0.1</v>
+      </c>
       <c r="J29">
         <v>12</v>
       </c>
@@ -2328,6 +2653,9 @@
       <c r="M29">
         <v>-1</v>
       </c>
+      <c r="N29">
+        <v>0.2</v>
+      </c>
       <c r="O29">
         <v>10</v>
       </c>
@@ -2340,6 +2668,9 @@
       <c r="R29">
         <v>-2</v>
       </c>
+      <c r="S29">
+        <v>0.4</v>
+      </c>
       <c r="T29">
         <v>16</v>
       </c>
@@ -2352,16 +2683,19 @@
       <c r="W29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X29">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E30">
         <v>9</v>
@@ -2375,6 +2709,9 @@
       <c r="H30">
         <v>0</v>
       </c>
+      <c r="I30">
+        <v>0.1</v>
+      </c>
       <c r="J30">
         <v>8</v>
       </c>
@@ -2387,6 +2724,9 @@
       <c r="M30">
         <v>-1</v>
       </c>
+      <c r="N30">
+        <v>0.2</v>
+      </c>
       <c r="O30">
         <v>7</v>
       </c>
@@ -2399,6 +2739,9 @@
       <c r="R30">
         <v>-2</v>
       </c>
+      <c r="S30">
+        <v>0.4</v>
+      </c>
       <c r="T30">
         <v>10</v>
       </c>
@@ -2411,16 +2754,19 @@
       <c r="W30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X30">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E31">
         <v>7</v>
@@ -2434,6 +2780,9 @@
       <c r="H31">
         <v>0</v>
       </c>
+      <c r="I31">
+        <v>0.1</v>
+      </c>
       <c r="J31">
         <v>6</v>
       </c>
@@ -2446,6 +2795,9 @@
       <c r="M31">
         <v>0</v>
       </c>
+      <c r="N31">
+        <v>0.2</v>
+      </c>
       <c r="O31">
         <v>5</v>
       </c>
@@ -2458,6 +2810,9 @@
       <c r="R31">
         <v>-1</v>
       </c>
+      <c r="S31">
+        <v>0.4</v>
+      </c>
       <c r="T31">
         <v>9</v>
       </c>
@@ -2470,16 +2825,19 @@
       <c r="W31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X31">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E32">
         <v>8</v>
@@ -2493,6 +2851,9 @@
       <c r="H32">
         <v>0</v>
       </c>
+      <c r="I32">
+        <v>0.1</v>
+      </c>
       <c r="J32">
         <v>7</v>
       </c>
@@ -2505,6 +2866,9 @@
       <c r="M32">
         <v>-1</v>
       </c>
+      <c r="N32">
+        <v>0.2</v>
+      </c>
       <c r="O32">
         <v>5</v>
       </c>
@@ -2517,6 +2881,9 @@
       <c r="R32">
         <v>-2</v>
       </c>
+      <c r="S32">
+        <v>0.4</v>
+      </c>
       <c r="T32">
         <v>10</v>
       </c>
@@ -2529,16 +2896,19 @@
       <c r="W32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -2552,6 +2922,9 @@
       <c r="H33">
         <v>0</v>
       </c>
+      <c r="I33">
+        <v>0.1</v>
+      </c>
       <c r="J33">
         <v>2</v>
       </c>
@@ -2564,6 +2937,9 @@
       <c r="M33">
         <v>-1</v>
       </c>
+      <c r="N33">
+        <v>0.2</v>
+      </c>
       <c r="O33">
         <v>1</v>
       </c>
@@ -2576,6 +2952,9 @@
       <c r="R33">
         <v>0</v>
       </c>
+      <c r="S33">
+        <v>0.4</v>
+      </c>
       <c r="T33">
         <v>4</v>
       </c>
@@ -2588,16 +2967,19 @@
       <c r="W33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <v>10</v>
@@ -2611,6 +2993,9 @@
       <c r="H34">
         <v>0</v>
       </c>
+      <c r="I34">
+        <v>0.1</v>
+      </c>
       <c r="J34">
         <v>9</v>
       </c>
@@ -2623,6 +3008,9 @@
       <c r="M34">
         <v>-1</v>
       </c>
+      <c r="N34">
+        <v>0.2</v>
+      </c>
       <c r="O34">
         <v>7</v>
       </c>
@@ -2635,6 +3023,9 @@
       <c r="R34">
         <v>-1</v>
       </c>
+      <c r="S34">
+        <v>0.4</v>
+      </c>
       <c r="T34">
         <v>12</v>
       </c>
@@ -2647,16 +3038,19 @@
       <c r="W34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E35">
         <v>6</v>
@@ -2670,6 +3064,9 @@
       <c r="H35">
         <v>0</v>
       </c>
+      <c r="I35">
+        <v>0.1</v>
+      </c>
       <c r="J35">
         <v>5</v>
       </c>
@@ -2682,6 +3079,9 @@
       <c r="M35">
         <v>0</v>
       </c>
+      <c r="N35">
+        <v>0.2</v>
+      </c>
       <c r="O35">
         <v>4</v>
       </c>
@@ -2694,6 +3094,9 @@
       <c r="R35">
         <v>-2</v>
       </c>
+      <c r="S35">
+        <v>0.4</v>
+      </c>
       <c r="T35">
         <v>8</v>
       </c>
@@ -2706,16 +3109,19 @@
       <c r="W35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -2729,6 +3135,9 @@
       <c r="H36">
         <v>0</v>
       </c>
+      <c r="I36">
+        <v>0.1</v>
+      </c>
       <c r="J36">
         <v>2</v>
       </c>
@@ -2741,6 +3150,9 @@
       <c r="M36">
         <v>-1</v>
       </c>
+      <c r="N36">
+        <v>0.2</v>
+      </c>
       <c r="O36">
         <v>1</v>
       </c>
@@ -2753,6 +3165,9 @@
       <c r="R36">
         <v>-2</v>
       </c>
+      <c r="S36">
+        <v>0.4</v>
+      </c>
       <c r="T36">
         <v>5</v>
       </c>
@@ -2765,13 +3180,16 @@
       <c r="W36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X36">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D37">
         <v>37</v>
@@ -2780,13 +3198,16 @@
         <v>4</v>
       </c>
       <c r="F37">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0.1</v>
       </c>
       <c r="J37">
         <v>3</v>
@@ -2800,6 +3221,9 @@
       <c r="M37">
         <v>0</v>
       </c>
+      <c r="N37">
+        <v>0.2</v>
+      </c>
       <c r="O37">
         <v>2</v>
       </c>
@@ -2812,6 +3236,9 @@
       <c r="R37">
         <v>-1</v>
       </c>
+      <c r="S37">
+        <v>0.4</v>
+      </c>
       <c r="T37">
         <v>5</v>
       </c>
@@ -2824,13 +3251,16 @@
       <c r="W37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X37">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D38">
         <v>38</v>
@@ -2847,6 +3277,9 @@
       <c r="H38">
         <v>0</v>
       </c>
+      <c r="I38">
+        <v>0.1</v>
+      </c>
       <c r="J38">
         <v>4</v>
       </c>
@@ -2859,6 +3292,9 @@
       <c r="M38">
         <v>0</v>
       </c>
+      <c r="N38">
+        <v>0.2</v>
+      </c>
       <c r="O38">
         <v>3</v>
       </c>
@@ -2871,6 +3307,9 @@
       <c r="R38">
         <v>0</v>
       </c>
+      <c r="S38">
+        <v>0.4</v>
+      </c>
       <c r="T38">
         <v>6</v>
       </c>
@@ -2883,13 +3322,16 @@
       <c r="W38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -2906,6 +3348,9 @@
       <c r="H39">
         <v>0</v>
       </c>
+      <c r="I39">
+        <v>0.1</v>
+      </c>
       <c r="J39">
         <v>2</v>
       </c>
@@ -2918,6 +3363,9 @@
       <c r="M39">
         <v>-1</v>
       </c>
+      <c r="N39">
+        <v>0.2</v>
+      </c>
       <c r="O39">
         <v>1</v>
       </c>
@@ -2930,6 +3378,9 @@
       <c r="R39">
         <v>-1</v>
       </c>
+      <c r="S39">
+        <v>0.4</v>
+      </c>
       <c r="T39">
         <v>4</v>
       </c>
@@ -2942,13 +3393,16 @@
       <c r="W39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D40">
         <v>38</v>
@@ -2965,6 +3419,9 @@
       <c r="H40">
         <v>0</v>
       </c>
+      <c r="I40">
+        <v>0.1</v>
+      </c>
       <c r="J40">
         <v>2</v>
       </c>
@@ -2977,6 +3434,9 @@
       <c r="M40">
         <v>0</v>
       </c>
+      <c r="N40">
+        <v>0.2</v>
+      </c>
       <c r="O40">
         <v>1</v>
       </c>
@@ -2989,6 +3449,9 @@
       <c r="R40">
         <v>0</v>
       </c>
+      <c r="S40">
+        <v>0.4</v>
+      </c>
       <c r="T40">
         <v>4</v>
       </c>
@@ -3001,16 +3464,19 @@
       <c r="W40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E41">
         <v>3</v>
@@ -3024,6 +3490,9 @@
       <c r="H41">
         <v>0</v>
       </c>
+      <c r="I41">
+        <v>0.1</v>
+      </c>
       <c r="J41">
         <v>2</v>
       </c>
@@ -3036,6 +3505,9 @@
       <c r="M41">
         <v>0</v>
       </c>
+      <c r="N41">
+        <v>0.2</v>
+      </c>
       <c r="O41">
         <v>1</v>
       </c>
@@ -3048,6 +3520,9 @@
       <c r="R41">
         <v>0</v>
       </c>
+      <c r="S41">
+        <v>0.4</v>
+      </c>
       <c r="T41">
         <v>4</v>
       </c>
@@ -3060,13 +3535,16 @@
       <c r="W41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D42">
         <v>44</v>
@@ -3083,6 +3561,9 @@
       <c r="H42">
         <v>0</v>
       </c>
+      <c r="I42">
+        <v>0.1</v>
+      </c>
       <c r="J42">
         <v>2</v>
       </c>
@@ -3095,6 +3576,9 @@
       <c r="M42">
         <v>-1</v>
       </c>
+      <c r="N42">
+        <v>0.2</v>
+      </c>
       <c r="O42">
         <v>1</v>
       </c>
@@ -3107,6 +3591,9 @@
       <c r="R42">
         <v>-2</v>
       </c>
+      <c r="S42">
+        <v>0.4</v>
+      </c>
       <c r="T42">
         <v>5</v>
       </c>
@@ -3119,13 +3606,16 @@
       <c r="W42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D43">
         <v>44</v>
@@ -3142,6 +3632,9 @@
       <c r="H43">
         <v>0</v>
       </c>
+      <c r="I43">
+        <v>0.1</v>
+      </c>
       <c r="J43">
         <v>2</v>
       </c>
@@ -3154,6 +3647,9 @@
       <c r="M43">
         <v>-1</v>
       </c>
+      <c r="N43">
+        <v>0.2</v>
+      </c>
       <c r="O43">
         <v>1</v>
       </c>
@@ -3166,6 +3662,9 @@
       <c r="R43">
         <v>-2</v>
       </c>
+      <c r="S43">
+        <v>0.4</v>
+      </c>
       <c r="T43">
         <v>4</v>
       </c>
@@ -3178,13 +3677,16 @@
       <c r="W43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D44">
         <v>44</v>
@@ -3201,6 +3703,9 @@
       <c r="H44">
         <v>0</v>
       </c>
+      <c r="I44">
+        <v>0.1</v>
+      </c>
       <c r="J44">
         <v>3</v>
       </c>
@@ -3213,6 +3718,9 @@
       <c r="M44">
         <v>0</v>
       </c>
+      <c r="N44">
+        <v>0.2</v>
+      </c>
       <c r="O44">
         <v>2</v>
       </c>
@@ -3225,6 +3733,9 @@
       <c r="R44">
         <v>0</v>
       </c>
+      <c r="S44">
+        <v>0.4</v>
+      </c>
       <c r="T44">
         <v>5</v>
       </c>
@@ -3237,16 +3748,19 @@
       <c r="W44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -3260,6 +3774,9 @@
       <c r="H45">
         <v>0</v>
       </c>
+      <c r="I45">
+        <v>0.1</v>
+      </c>
       <c r="J45">
         <v>2</v>
       </c>
@@ -3272,6 +3789,9 @@
       <c r="M45">
         <v>0</v>
       </c>
+      <c r="N45">
+        <v>0.2</v>
+      </c>
       <c r="O45">
         <v>1</v>
       </c>
@@ -3284,6 +3804,9 @@
       <c r="R45">
         <v>0</v>
       </c>
+      <c r="S45">
+        <v>0.4</v>
+      </c>
       <c r="T45">
         <v>4</v>
       </c>
@@ -3296,13 +3819,16 @@
       <c r="W45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D46">
         <v>46</v>
@@ -3319,6 +3845,9 @@
       <c r="H46">
         <v>0</v>
       </c>
+      <c r="I46">
+        <v>0.1</v>
+      </c>
       <c r="J46">
         <v>2</v>
       </c>
@@ -3331,6 +3860,9 @@
       <c r="M46">
         <v>-1</v>
       </c>
+      <c r="N46">
+        <v>0.2</v>
+      </c>
       <c r="O46">
         <v>1</v>
       </c>
@@ -3343,6 +3875,9 @@
       <c r="R46">
         <v>-2</v>
       </c>
+      <c r="S46">
+        <v>0.4</v>
+      </c>
       <c r="T46">
         <v>5</v>
       </c>
@@ -3355,13 +3890,16 @@
       <c r="W46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -3378,6 +3916,9 @@
       <c r="H47">
         <v>0</v>
       </c>
+      <c r="I47">
+        <v>0.1</v>
+      </c>
       <c r="J47">
         <v>1</v>
       </c>
@@ -3390,6 +3931,9 @@
       <c r="M47">
         <v>0</v>
       </c>
+      <c r="N47">
+        <v>0.2</v>
+      </c>
       <c r="T47">
         <v>3</v>
       </c>
@@ -3402,13 +3946,16 @@
       <c r="W47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D48">
         <v>46</v>
@@ -3425,6 +3972,9 @@
       <c r="H48">
         <v>0</v>
       </c>
+      <c r="I48">
+        <v>0.1</v>
+      </c>
       <c r="J48">
         <v>1</v>
       </c>
@@ -3437,6 +3987,9 @@
       <c r="M48">
         <v>0</v>
       </c>
+      <c r="N48">
+        <v>0.2</v>
+      </c>
       <c r="T48">
         <v>3</v>
       </c>
@@ -3449,13 +4002,16 @@
       <c r="W48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="X48">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3469,6 +4025,9 @@
       <c r="H49">
         <v>0</v>
       </c>
+      <c r="I49">
+        <v>0.1</v>
+      </c>
       <c r="J49">
         <v>0</v>
       </c>
@@ -3480,9 +4039,3840 @@
       </c>
       <c r="M49">
         <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F7CF45-058D-1742-8026-DA8F96C71A09}">
+  <dimension ref="A1:V137"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScale="83" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E30" si="0">E4-D3</f>
+        <v>-8500</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I30" si="1">I4-H3</f>
+        <v>-4920</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M30" si="2">M4-L3</f>
+        <v>-4850</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>-8350</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>-4820</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>-4750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-8200</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>-4720</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>-4650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-8050</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>-4620</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>-4550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-7900</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>-4520</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>-4450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-7750</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>-4420</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>-4350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>150</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>-7600</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>-4320</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>-4250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-7450</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>-4220</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>-4150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>150</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-7300</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>-4120</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>-4050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-7150</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>-4020</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>-3950</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-7000</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>-3920</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>-3850</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>150</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>-6850</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>-3820</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>-3750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>-6700</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>-3720</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>-3650</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>150</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>-6550</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>-3620</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>-3550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>150</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>-6400</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>-3520</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>-3450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>150</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>-6250</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>-3420</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>-3350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>150</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>-6100</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>-3320</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>-3250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>150</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>-5950</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>-3220</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>-3150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>150</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>-5800</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>-3120</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>-3050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>150</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>-5650</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>-3020</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>-2950</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>150</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>-5500</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>-2920</v>
+      </c>
+      <c r="L23">
+        <v>100</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>-2850</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>150</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>-5350</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>-2820</v>
+      </c>
+      <c r="L24">
+        <v>100</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>-2750</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>150</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>-5200</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>-2720</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>-2650</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>150</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>-5050</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>-2620</v>
+      </c>
+      <c r="L26">
+        <v>100</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>-2550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>150</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>-4900</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>-2520</v>
+      </c>
+      <c r="L27">
+        <v>100</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>-2450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>150</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>-4750</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>-2420</v>
+      </c>
+      <c r="L28">
+        <v>100</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>-2350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>150</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>-4600</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>-2320</v>
+      </c>
+      <c r="L29">
+        <v>100</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>-2250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>150</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>-4450</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>-2220</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>-2150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="D31">
+        <v>150</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E29:E47" si="3">E32-D31</f>
+        <v>-4300</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I29:I44" si="4">I32-H31</f>
+        <v>-2120</v>
+      </c>
+      <c r="L31">
+        <v>100</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ref="M29:M42" si="5">M32-L31</f>
+        <v>-2050</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>150</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>-4150</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>-2020</v>
+      </c>
+      <c r="L32">
+        <v>100</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>-1950</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>150</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>-4000</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>-1920</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>-1850</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <v>150</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>-3850</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>-1820</v>
+      </c>
+      <c r="L34">
+        <v>100</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>-1750</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <v>150</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>-3700</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>-1720</v>
+      </c>
+      <c r="L35">
+        <v>100</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>-1650</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="D36">
+        <v>150</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>-3550</v>
+      </c>
+      <c r="H36">
+        <v>100</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>-1620</v>
+      </c>
+      <c r="L36">
+        <v>100</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>-1550</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="D37">
+        <v>150</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>-3400</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>-1520</v>
+      </c>
+      <c r="L37">
+        <v>100</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>-1450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="D38">
+        <v>150</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>-3250</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>-1420</v>
+      </c>
+      <c r="L38">
+        <v>100</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>-1350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="D39">
+        <v>150</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>-3100</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>-1320</v>
+      </c>
+      <c r="L39">
+        <v>100</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>-1250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="D40">
+        <v>150</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>-2950</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>-1220</v>
+      </c>
+      <c r="L40">
+        <v>100</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>-1150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="D41">
+        <v>150</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>-2800</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>-1120</v>
+      </c>
+      <c r="L41">
+        <v>100</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>-1050</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="D42">
+        <v>150</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>-2650</v>
+      </c>
+      <c r="H42">
+        <v>100</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="4"/>
+        <v>-1020</v>
+      </c>
+      <c r="K42" t="s">
+        <v>68</v>
+      </c>
+      <c r="L42">
+        <v>100</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>-950</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <v>150</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>-2500</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="4"/>
+        <v>-920</v>
+      </c>
+      <c r="K43">
+        <v>12</v>
+      </c>
+      <c r="L43">
+        <v>85</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ref="M43:M53" si="6">M44-L43</f>
+        <v>-850</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>150</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>-2350</v>
+      </c>
+      <c r="G44" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="4"/>
+        <v>-820</v>
+      </c>
+      <c r="K44">
+        <v>11</v>
+      </c>
+      <c r="L44">
+        <v>85</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="6"/>
+        <v>-765</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="D45">
+        <v>150</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>-2200</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>90</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ref="I45:I54" si="7">I46-H45</f>
+        <v>-720</v>
+      </c>
+      <c r="K45">
+        <v>10</v>
+      </c>
+      <c r="L45">
+        <v>85</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="6"/>
+        <v>-680</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="D46">
+        <v>150</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>-2050</v>
+      </c>
+      <c r="G46">
+        <v>9</v>
+      </c>
+      <c r="H46">
+        <v>90</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="7"/>
+        <v>-630</v>
+      </c>
+      <c r="K46">
+        <v>9</v>
+      </c>
+      <c r="L46">
+        <v>85</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="6"/>
+        <v>-595</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47">
+        <v>150</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>-1900</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>90</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="7"/>
+        <v>-540</v>
+      </c>
+      <c r="K47">
+        <v>8</v>
+      </c>
+      <c r="L47">
+        <v>70</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="6"/>
+        <v>-510</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <v>-7</v>
+      </c>
+      <c r="D48">
+        <v>200</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48:E53" si="8">E49-D48</f>
+        <v>-1750</v>
+      </c>
+      <c r="G48">
+        <v>7</v>
+      </c>
+      <c r="H48">
+        <v>75</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="7"/>
+        <v>-450</v>
+      </c>
+      <c r="K48">
+        <v>7</v>
+      </c>
+      <c r="L48">
+        <v>70</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="6"/>
+        <v>-440</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="C49">
+        <v>-6</v>
+      </c>
+      <c r="D49">
+        <v>200</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="8"/>
+        <v>-1550</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+      <c r="H49">
+        <v>75</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="7"/>
+        <v>-375</v>
+      </c>
+      <c r="K49">
+        <v>6</v>
+      </c>
+      <c r="L49">
+        <v>70</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="6"/>
+        <v>-370</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="C50">
+        <v>-5</v>
+      </c>
+      <c r="D50">
+        <v>250</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="8"/>
+        <v>-1350</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>75</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="7"/>
+        <v>-300</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+      <c r="L50">
+        <v>60</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="6"/>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="C51">
+        <v>-4</v>
+      </c>
+      <c r="D51">
+        <v>250</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="8"/>
+        <v>-1100</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>75</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="7"/>
+        <v>-225</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+      <c r="L51">
+        <v>60</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="6"/>
+        <v>-240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="C52">
+        <v>-3</v>
+      </c>
+      <c r="D52">
+        <v>250</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="8"/>
+        <v>-850</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>50</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="7"/>
+        <v>-150</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52">
+        <v>60</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="6"/>
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <v>-2</v>
+      </c>
+      <c r="D53">
+        <v>300</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="8"/>
+        <v>-600</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>50</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="7"/>
+        <v>-100</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>60</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="C54">
+        <v>-1</v>
+      </c>
+      <c r="D54">
+        <v>300</v>
+      </c>
+      <c r="E54">
+        <f>E55-D54</f>
+        <v>-300</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>50</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="7"/>
+        <v>-50</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>60</v>
+      </c>
+      <c r="M54">
+        <f>M55-L54</f>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>200</v>
+      </c>
+      <c r="E56">
+        <f>E55+D56</f>
+        <v>200</v>
+      </c>
+      <c r="G56">
+        <v>-10</v>
+      </c>
+      <c r="H56">
+        <v>125</v>
+      </c>
+      <c r="I56">
+        <f t="shared" ref="I56:I65" si="9">H56+I55</f>
+        <v>125</v>
+      </c>
+      <c r="K56">
+        <v>-1</v>
+      </c>
+      <c r="L56">
+        <v>60</v>
+      </c>
+      <c r="M56">
+        <f>L56+M55</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>200</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ref="E57:E111" si="10">E56+D57</f>
+        <v>400</v>
+      </c>
+      <c r="G57">
+        <v>-9</v>
+      </c>
+      <c r="H57">
+        <v>125</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="9"/>
+        <v>250</v>
+      </c>
+      <c r="K57">
+        <v>-2</v>
+      </c>
+      <c r="L57">
+        <v>60</v>
+      </c>
+      <c r="M57">
+        <f t="shared" ref="M57:M111" si="11">L57+M56</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>200</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="10"/>
+        <v>600</v>
+      </c>
+      <c r="G58">
+        <v>-8</v>
+      </c>
+      <c r="H58">
+        <v>125</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="9"/>
+        <v>375</v>
+      </c>
+      <c r="K58">
+        <v>-3</v>
+      </c>
+      <c r="L58">
+        <v>80</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>250</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="10"/>
+        <v>850</v>
+      </c>
+      <c r="G59">
+        <v>-7</v>
+      </c>
+      <c r="H59">
+        <v>125</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="9"/>
+        <v>500</v>
+      </c>
+      <c r="K59">
+        <v>-4</v>
+      </c>
+      <c r="L59">
+        <v>80</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="11"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>250</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="10"/>
+        <v>1100</v>
+      </c>
+      <c r="G60">
+        <v>-6</v>
+      </c>
+      <c r="H60">
+        <v>75</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="9"/>
+        <v>575</v>
+      </c>
+      <c r="K60">
+        <v>-5</v>
+      </c>
+      <c r="L60">
+        <v>80</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="11"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>250</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="10"/>
+        <v>1350</v>
+      </c>
+      <c r="G61">
+        <v>-5</v>
+      </c>
+      <c r="H61">
+        <v>75</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="9"/>
+        <v>650</v>
+      </c>
+      <c r="K61">
+        <v>-6</v>
+      </c>
+      <c r="L61">
+        <v>90</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="11"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>300</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="10"/>
+        <v>1650</v>
+      </c>
+      <c r="G62">
+        <v>-4</v>
+      </c>
+      <c r="H62">
+        <v>75</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="9"/>
+        <v>725</v>
+      </c>
+      <c r="K62">
+        <v>-7</v>
+      </c>
+      <c r="L62">
+        <v>90</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="11"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>300</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="10"/>
+        <v>1950</v>
+      </c>
+      <c r="G63">
+        <v>-3</v>
+      </c>
+      <c r="H63">
+        <v>50</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="9"/>
+        <v>775</v>
+      </c>
+      <c r="K63">
+        <v>-8</v>
+      </c>
+      <c r="L63">
+        <v>90</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="11"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <v>300</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="10"/>
+        <v>2250</v>
+      </c>
+      <c r="G64">
+        <v>-2</v>
+      </c>
+      <c r="H64">
+        <v>50</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="9"/>
+        <v>825</v>
+      </c>
+      <c r="K64" t="s">
+        <v>68</v>
+      </c>
+      <c r="L64">
+        <v>120</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>300</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="10"/>
+        <v>2550</v>
+      </c>
+      <c r="G65">
+        <v>-1</v>
+      </c>
+      <c r="H65">
+        <v>50</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="9"/>
+        <v>875</v>
+      </c>
+      <c r="L65">
+        <v>120</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="11"/>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66">
+        <v>400</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="10"/>
+        <v>2950</v>
+      </c>
+      <c r="G66" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66">
+        <v>200</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ref="I66:I111" si="12">H66+I65</f>
+        <v>1075</v>
+      </c>
+      <c r="L66">
+        <v>120</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="11"/>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="D67">
+        <v>400</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="10"/>
+        <v>3350</v>
+      </c>
+      <c r="H67">
+        <v>200</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="12"/>
+        <v>1275</v>
+      </c>
+      <c r="L67">
+        <v>120</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="11"/>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="D68">
+        <v>400</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="10"/>
+        <v>3750</v>
+      </c>
+      <c r="H68">
+        <v>200</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="12"/>
+        <v>1475</v>
+      </c>
+      <c r="L68">
+        <v>120</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="11"/>
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="D69">
+        <v>400</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="10"/>
+        <v>4150</v>
+      </c>
+      <c r="H69">
+        <v>200</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="12"/>
+        <v>1675</v>
+      </c>
+      <c r="L69">
+        <v>120</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="11"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="D70">
+        <v>400</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="10"/>
+        <v>4550</v>
+      </c>
+      <c r="H70">
+        <v>200</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="12"/>
+        <v>1875</v>
+      </c>
+      <c r="L70">
+        <v>120</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="11"/>
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="D71">
+        <v>400</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="10"/>
+        <v>4950</v>
+      </c>
+      <c r="H71">
+        <v>200</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="12"/>
+        <v>2075</v>
+      </c>
+      <c r="L71">
+        <v>120</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="11"/>
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="D72">
+        <v>400</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="10"/>
+        <v>5350</v>
+      </c>
+      <c r="H72">
+        <v>200</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="12"/>
+        <v>2275</v>
+      </c>
+      <c r="L72">
+        <v>120</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="11"/>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="D73">
+        <v>400</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="10"/>
+        <v>5750</v>
+      </c>
+      <c r="H73">
+        <v>200</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="12"/>
+        <v>2475</v>
+      </c>
+      <c r="L73">
+        <v>120</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="11"/>
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="D74">
+        <v>400</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="10"/>
+        <v>6150</v>
+      </c>
+      <c r="H74">
+        <v>200</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="12"/>
+        <v>2675</v>
+      </c>
+      <c r="L74">
+        <v>120</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="11"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="D75">
+        <v>400</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="10"/>
+        <v>6550</v>
+      </c>
+      <c r="H75">
+        <v>200</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="12"/>
+        <v>2875</v>
+      </c>
+      <c r="L75">
+        <v>120</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="11"/>
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="D76">
+        <v>400</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="10"/>
+        <v>6950</v>
+      </c>
+      <c r="H76">
+        <v>200</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="12"/>
+        <v>3075</v>
+      </c>
+      <c r="L76">
+        <v>120</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="11"/>
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="D77">
+        <v>400</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="10"/>
+        <v>7350</v>
+      </c>
+      <c r="H77">
+        <v>200</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="12"/>
+        <v>3275</v>
+      </c>
+      <c r="L77">
+        <v>120</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="11"/>
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="D78">
+        <v>400</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="10"/>
+        <v>7750</v>
+      </c>
+      <c r="H78">
+        <v>200</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="12"/>
+        <v>3475</v>
+      </c>
+      <c r="L78">
+        <v>120</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="11"/>
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="D79">
+        <v>400</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="10"/>
+        <v>8150</v>
+      </c>
+      <c r="H79">
+        <v>200</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="12"/>
+        <v>3675</v>
+      </c>
+      <c r="L79">
+        <v>120</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="11"/>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="D80">
+        <v>400</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="10"/>
+        <v>8550</v>
+      </c>
+      <c r="H80">
+        <v>200</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="12"/>
+        <v>3875</v>
+      </c>
+      <c r="L80">
+        <v>120</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="11"/>
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="D81">
+        <v>400</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="10"/>
+        <v>8950</v>
+      </c>
+      <c r="H81">
+        <v>200</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="12"/>
+        <v>4075</v>
+      </c>
+      <c r="L81">
+        <v>120</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="11"/>
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="D82">
+        <v>400</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="10"/>
+        <v>9350</v>
+      </c>
+      <c r="H82">
+        <v>200</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="12"/>
+        <v>4275</v>
+      </c>
+      <c r="L82">
+        <v>120</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="11"/>
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="D83">
+        <v>400</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="10"/>
+        <v>9750</v>
+      </c>
+      <c r="H83">
+        <v>200</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="12"/>
+        <v>4475</v>
+      </c>
+      <c r="L83">
+        <v>120</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="11"/>
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="D84">
+        <v>400</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="10"/>
+        <v>10150</v>
+      </c>
+      <c r="H84">
+        <v>200</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="12"/>
+        <v>4675</v>
+      </c>
+      <c r="L84">
+        <v>120</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="11"/>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="D85">
+        <v>400</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="10"/>
+        <v>10550</v>
+      </c>
+      <c r="H85">
+        <v>200</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="12"/>
+        <v>4875</v>
+      </c>
+      <c r="L85">
+        <v>120</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="11"/>
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="D86">
+        <v>400</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="10"/>
+        <v>10950</v>
+      </c>
+      <c r="H86">
+        <v>200</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="12"/>
+        <v>5075</v>
+      </c>
+      <c r="L86">
+        <v>120</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="11"/>
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="D87">
+        <v>400</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="10"/>
+        <v>11350</v>
+      </c>
+      <c r="H87">
+        <v>200</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="12"/>
+        <v>5275</v>
+      </c>
+      <c r="L87">
+        <v>120</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="11"/>
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="D88">
+        <v>400</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="10"/>
+        <v>11750</v>
+      </c>
+      <c r="H88">
+        <v>200</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="12"/>
+        <v>5475</v>
+      </c>
+      <c r="L88">
+        <v>120</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="11"/>
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="D89">
+        <v>400</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="10"/>
+        <v>12150</v>
+      </c>
+      <c r="H89">
+        <v>200</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="12"/>
+        <v>5675</v>
+      </c>
+      <c r="L89">
+        <v>120</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="11"/>
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="D90">
+        <v>400</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="10"/>
+        <v>12550</v>
+      </c>
+      <c r="H90">
+        <v>200</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="12"/>
+        <v>5875</v>
+      </c>
+      <c r="L90">
+        <v>120</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="11"/>
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="D91">
+        <v>400</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="10"/>
+        <v>12950</v>
+      </c>
+      <c r="H91">
+        <v>200</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="12"/>
+        <v>6075</v>
+      </c>
+      <c r="L91">
+        <v>120</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="11"/>
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="D92">
+        <v>400</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="10"/>
+        <v>13350</v>
+      </c>
+      <c r="H92">
+        <v>200</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="12"/>
+        <v>6275</v>
+      </c>
+      <c r="L92">
+        <v>120</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="11"/>
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="D93">
+        <v>400</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="10"/>
+        <v>13750</v>
+      </c>
+      <c r="H93">
+        <v>200</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="12"/>
+        <v>6475</v>
+      </c>
+      <c r="L93">
+        <v>120</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="11"/>
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="D94">
+        <v>400</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="10"/>
+        <v>14150</v>
+      </c>
+      <c r="H94">
+        <v>200</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="12"/>
+        <v>6675</v>
+      </c>
+      <c r="L94">
+        <v>120</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="11"/>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="D95">
+        <v>400</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="10"/>
+        <v>14550</v>
+      </c>
+      <c r="H95">
+        <v>200</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="12"/>
+        <v>6875</v>
+      </c>
+      <c r="L95">
+        <v>120</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="11"/>
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="D96">
+        <v>400</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="10"/>
+        <v>14950</v>
+      </c>
+      <c r="H96">
+        <v>200</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="12"/>
+        <v>7075</v>
+      </c>
+      <c r="L96">
+        <v>120</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="11"/>
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="D97">
+        <v>400</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="10"/>
+        <v>15350</v>
+      </c>
+      <c r="H97">
+        <v>200</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="12"/>
+        <v>7275</v>
+      </c>
+      <c r="L97">
+        <v>120</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="11"/>
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="D98">
+        <v>400</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="10"/>
+        <v>15750</v>
+      </c>
+      <c r="H98">
+        <v>200</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="12"/>
+        <v>7475</v>
+      </c>
+      <c r="L98">
+        <v>120</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="11"/>
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="D99">
+        <v>400</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="10"/>
+        <v>16150</v>
+      </c>
+      <c r="H99">
+        <v>200</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="12"/>
+        <v>7675</v>
+      </c>
+      <c r="L99">
+        <v>120</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="11"/>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="D100">
+        <v>400</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="10"/>
+        <v>16550</v>
+      </c>
+      <c r="H100">
+        <v>200</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="12"/>
+        <v>7875</v>
+      </c>
+      <c r="L100">
+        <v>120</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="11"/>
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="D101">
+        <v>400</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="10"/>
+        <v>16950</v>
+      </c>
+      <c r="H101">
+        <v>200</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="12"/>
+        <v>8075</v>
+      </c>
+      <c r="L101">
+        <v>120</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="11"/>
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="D102">
+        <v>400</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="10"/>
+        <v>17350</v>
+      </c>
+      <c r="H102">
+        <v>200</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="12"/>
+        <v>8275</v>
+      </c>
+      <c r="L102">
+        <v>120</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="11"/>
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="D103">
+        <v>400</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="10"/>
+        <v>17750</v>
+      </c>
+      <c r="H103">
+        <v>200</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="12"/>
+        <v>8475</v>
+      </c>
+      <c r="L103">
+        <v>120</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="11"/>
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="D104">
+        <v>400</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="10"/>
+        <v>18150</v>
+      </c>
+      <c r="H104">
+        <v>200</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="12"/>
+        <v>8675</v>
+      </c>
+      <c r="L104">
+        <v>120</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="11"/>
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="D105">
+        <v>400</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="10"/>
+        <v>18550</v>
+      </c>
+      <c r="H105">
+        <v>200</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="12"/>
+        <v>8875</v>
+      </c>
+      <c r="L105">
+        <v>120</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="11"/>
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="D106">
+        <v>400</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="10"/>
+        <v>18950</v>
+      </c>
+      <c r="H106">
+        <v>200</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="12"/>
+        <v>9075</v>
+      </c>
+      <c r="L106">
+        <v>120</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="11"/>
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="D107">
+        <v>400</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="10"/>
+        <v>19350</v>
+      </c>
+      <c r="H107">
+        <v>200</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="12"/>
+        <v>9275</v>
+      </c>
+      <c r="L107">
+        <v>120</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="11"/>
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="D108">
+        <v>400</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="10"/>
+        <v>19750</v>
+      </c>
+      <c r="H108">
+        <v>200</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="12"/>
+        <v>9475</v>
+      </c>
+      <c r="L108">
+        <v>120</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="11"/>
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="D109">
+        <v>400</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="10"/>
+        <v>20150</v>
+      </c>
+      <c r="H109">
+        <v>200</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="12"/>
+        <v>9675</v>
+      </c>
+      <c r="L109">
+        <v>120</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="11"/>
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>107</v>
+      </c>
+      <c r="D110">
+        <v>400</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="10"/>
+        <v>20550</v>
+      </c>
+      <c r="H110">
+        <v>200</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="12"/>
+        <v>9875</v>
+      </c>
+      <c r="L110">
+        <v>120</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="11"/>
+        <v>6270</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>108</v>
+      </c>
+      <c r="D111">
+        <v>400</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="10"/>
+        <v>20950</v>
+      </c>
+      <c r="H111">
+        <v>200</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="12"/>
+        <v>10075</v>
+      </c>
+      <c r="L111">
+        <v>120</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="11"/>
+        <v>6390</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>109</v>
+      </c>
+      <c r="D112">
+        <v>400</v>
+      </c>
+      <c r="E112">
+        <f t="shared" ref="E112:E137" si="13">E111+D112</f>
+        <v>21350</v>
+      </c>
+      <c r="H112">
+        <v>200</v>
+      </c>
+      <c r="I112">
+        <f t="shared" ref="I112:I137" si="14">H112+I111</f>
+        <v>10275</v>
+      </c>
+      <c r="L112">
+        <v>120</v>
+      </c>
+      <c r="M112">
+        <f t="shared" ref="M112:M137" si="15">L112+M111</f>
+        <v>6510</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>110</v>
+      </c>
+      <c r="D113">
+        <v>400</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="13"/>
+        <v>21750</v>
+      </c>
+      <c r="H113">
+        <v>200</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="14"/>
+        <v>10475</v>
+      </c>
+      <c r="L113">
+        <v>120</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="15"/>
+        <v>6630</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>111</v>
+      </c>
+      <c r="D114">
+        <v>400</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="13"/>
+        <v>22150</v>
+      </c>
+      <c r="H114">
+        <v>200</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="14"/>
+        <v>10675</v>
+      </c>
+      <c r="L114">
+        <v>120</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="15"/>
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>112</v>
+      </c>
+      <c r="D115">
+        <v>400</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="13"/>
+        <v>22550</v>
+      </c>
+      <c r="H115">
+        <v>200</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="14"/>
+        <v>10875</v>
+      </c>
+      <c r="L115">
+        <v>120</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="15"/>
+        <v>6870</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>113</v>
+      </c>
+      <c r="D116">
+        <v>400</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="13"/>
+        <v>22950</v>
+      </c>
+      <c r="H116">
+        <v>200</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="14"/>
+        <v>11075</v>
+      </c>
+      <c r="L116">
+        <v>120</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="15"/>
+        <v>6990</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>114</v>
+      </c>
+      <c r="D117">
+        <v>400</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="13"/>
+        <v>23350</v>
+      </c>
+      <c r="H117">
+        <v>200</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="14"/>
+        <v>11275</v>
+      </c>
+      <c r="L117">
+        <v>120</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="15"/>
+        <v>7110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>115</v>
+      </c>
+      <c r="D118">
+        <v>400</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="13"/>
+        <v>23750</v>
+      </c>
+      <c r="H118">
+        <v>200</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="14"/>
+        <v>11475</v>
+      </c>
+      <c r="L118">
+        <v>120</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="15"/>
+        <v>7230</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>116</v>
+      </c>
+      <c r="D119">
+        <v>400</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="13"/>
+        <v>24150</v>
+      </c>
+      <c r="H119">
+        <v>200</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="14"/>
+        <v>11675</v>
+      </c>
+      <c r="L119">
+        <v>120</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="15"/>
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>117</v>
+      </c>
+      <c r="D120">
+        <v>400</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="13"/>
+        <v>24550</v>
+      </c>
+      <c r="H120">
+        <v>200</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="14"/>
+        <v>11875</v>
+      </c>
+      <c r="L120">
+        <v>120</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="15"/>
+        <v>7470</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>118</v>
+      </c>
+      <c r="D121">
+        <v>400</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="13"/>
+        <v>24950</v>
+      </c>
+      <c r="H121">
+        <v>200</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="14"/>
+        <v>12075</v>
+      </c>
+      <c r="L121">
+        <v>120</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="15"/>
+        <v>7590</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>119</v>
+      </c>
+      <c r="D122">
+        <v>400</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="13"/>
+        <v>25350</v>
+      </c>
+      <c r="H122">
+        <v>200</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="14"/>
+        <v>12275</v>
+      </c>
+      <c r="L122">
+        <v>120</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="15"/>
+        <v>7710</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>120</v>
+      </c>
+      <c r="D123">
+        <v>400</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="13"/>
+        <v>25750</v>
+      </c>
+      <c r="H123">
+        <v>200</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="14"/>
+        <v>12475</v>
+      </c>
+      <c r="L123">
+        <v>120</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="15"/>
+        <v>7830</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>121</v>
+      </c>
+      <c r="D124">
+        <v>400</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="13"/>
+        <v>26150</v>
+      </c>
+      <c r="H124">
+        <v>200</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="14"/>
+        <v>12675</v>
+      </c>
+      <c r="L124">
+        <v>120</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="15"/>
+        <v>7950</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>122</v>
+      </c>
+      <c r="D125">
+        <v>400</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="13"/>
+        <v>26550</v>
+      </c>
+      <c r="H125">
+        <v>200</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="14"/>
+        <v>12875</v>
+      </c>
+      <c r="L125">
+        <v>120</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="15"/>
+        <v>8070</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>123</v>
+      </c>
+      <c r="D126">
+        <v>400</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="13"/>
+        <v>26950</v>
+      </c>
+      <c r="H126">
+        <v>200</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="14"/>
+        <v>13075</v>
+      </c>
+      <c r="L126">
+        <v>120</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="15"/>
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>124</v>
+      </c>
+      <c r="D127">
+        <v>400</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="13"/>
+        <v>27350</v>
+      </c>
+      <c r="H127">
+        <v>200</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="14"/>
+        <v>13275</v>
+      </c>
+      <c r="L127">
+        <v>120</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="15"/>
+        <v>8310</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>125</v>
+      </c>
+      <c r="D128">
+        <v>400</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="13"/>
+        <v>27750</v>
+      </c>
+      <c r="H128">
+        <v>200</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="14"/>
+        <v>13475</v>
+      </c>
+      <c r="L128">
+        <v>120</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="15"/>
+        <v>8430</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>126</v>
+      </c>
+      <c r="D129">
+        <v>400</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="13"/>
+        <v>28150</v>
+      </c>
+      <c r="H129">
+        <v>200</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="14"/>
+        <v>13675</v>
+      </c>
+      <c r="L129">
+        <v>120</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="15"/>
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>127</v>
+      </c>
+      <c r="D130">
+        <v>400</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="13"/>
+        <v>28550</v>
+      </c>
+      <c r="H130">
+        <v>200</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="14"/>
+        <v>13875</v>
+      </c>
+      <c r="L130">
+        <v>120</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="15"/>
+        <v>8670</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>128</v>
+      </c>
+      <c r="D131">
+        <v>400</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="13"/>
+        <v>28950</v>
+      </c>
+      <c r="H131">
+        <v>200</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="14"/>
+        <v>14075</v>
+      </c>
+      <c r="L131">
+        <v>120</v>
+      </c>
+      <c r="M131">
+        <f t="shared" si="15"/>
+        <v>8790</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>129</v>
+      </c>
+      <c r="D132">
+        <v>400</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="13"/>
+        <v>29350</v>
+      </c>
+      <c r="H132">
+        <v>200</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="14"/>
+        <v>14275</v>
+      </c>
+      <c r="L132">
+        <v>120</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="15"/>
+        <v>8910</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>130</v>
+      </c>
+      <c r="D133">
+        <v>400</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="13"/>
+        <v>29750</v>
+      </c>
+      <c r="H133">
+        <v>200</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="14"/>
+        <v>14475</v>
+      </c>
+      <c r="L133">
+        <v>120</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="15"/>
+        <v>9030</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>131</v>
+      </c>
+      <c r="D134">
+        <v>400</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="13"/>
+        <v>30150</v>
+      </c>
+      <c r="H134">
+        <v>200</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="14"/>
+        <v>14675</v>
+      </c>
+      <c r="L134">
+        <v>120</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="15"/>
+        <v>9150</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>132</v>
+      </c>
+      <c r="D135">
+        <v>400</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="13"/>
+        <v>30550</v>
+      </c>
+      <c r="H135">
+        <v>200</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="14"/>
+        <v>14875</v>
+      </c>
+      <c r="L135">
+        <v>120</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="15"/>
+        <v>9270</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>133</v>
+      </c>
+      <c r="D136">
+        <v>400</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="13"/>
+        <v>30950</v>
+      </c>
+      <c r="H136">
+        <v>200</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="14"/>
+        <v>15075</v>
+      </c>
+      <c r="L136">
+        <v>120</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="15"/>
+        <v>9390</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>134</v>
+      </c>
+      <c r="D137">
+        <v>400</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="13"/>
+        <v>31350</v>
+      </c>
+      <c r="H137">
+        <v>200</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="14"/>
+        <v>15275</v>
+      </c>
+      <c r="L137">
+        <v>120</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="15"/>
+        <v>9510</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G45:I65">
+    <sortCondition ref="I65"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Model_TopSim_RollerCoaster/RollerCoaster_Model_Definition.xlsx
+++ b/Model_TopSim_RollerCoaster/RollerCoaster_Model_Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malteebner/Library/Mobile Documents/com~apple~CloudDocs/Master ETIT/10. Semester/Forschungsarbeit/Code Forschungsarbeit/Model_TopSim_RollerCoaster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20828310-54E3-9C4D-B59A-0090486618B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB548049-4167-504E-92D0-EA514D70D6BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FCED99B0-49FF-5541-B4A0-4C6030238B64}"/>
   </bookViews>
@@ -272,12 +272,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -292,8 +298,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,36 +615,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A15AD41-7732-DC45-B8B2-B8C789AA2988}">
-  <dimension ref="A1:AN49"/>
+  <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.5" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -650,130 +664,130 @@
       <c r="D1">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="L1">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="M1">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="N1">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="O1">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="P1">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="R1">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="S1">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="T1">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="U1">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="V1">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="X1">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="Y1">
         <v>20</v>
       </c>
-      <c r="V1">
+      <c r="Z1">
         <v>21</v>
       </c>
-      <c r="W1">
+      <c r="AA1">
         <v>22</v>
       </c>
-      <c r="X1">
+      <c r="AB1">
         <v>23</v>
       </c>
-      <c r="Y1">
+      <c r="AC1">
         <v>24</v>
       </c>
-      <c r="Z1">
+      <c r="AD1">
         <v>25</v>
       </c>
-      <c r="AA1">
+      <c r="AE1">
         <v>26</v>
       </c>
-      <c r="AB1">
+      <c r="AF1">
         <v>27</v>
       </c>
-      <c r="AC1">
+      <c r="AG1">
         <v>28</v>
       </c>
-      <c r="AD1">
+      <c r="AH1">
         <v>29</v>
       </c>
-      <c r="AE1">
+      <c r="AI1">
         <v>30</v>
       </c>
-      <c r="AF1">
+      <c r="AJ1">
         <v>31</v>
       </c>
-      <c r="AG1">
+      <c r="AK1">
         <v>32</v>
       </c>
-      <c r="AH1">
+      <c r="AL1">
         <v>33</v>
       </c>
-      <c r="AI1">
+      <c r="AM1">
         <v>34</v>
       </c>
-      <c r="AJ1">
+      <c r="AN1">
         <v>35</v>
       </c>
-      <c r="AK1">
+      <c r="AO1">
         <v>36</v>
       </c>
-      <c r="AL1">
+      <c r="AP1">
         <v>37</v>
       </c>
-      <c r="AM1">
+      <c r="AQ1">
         <v>38</v>
       </c>
-      <c r="AN1">
+      <c r="AR1">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="E2" t="s">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>9</v>
       </c>
-      <c r="T2" t="s">
+      <c r="X2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -783,68 +797,68 @@
       <c r="D3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>73</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>74</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>73</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>74</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>2</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>3</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>6</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>73</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>74</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>2</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>3</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>6</v>
       </c>
-      <c r="T3" t="s">
+      <c r="X3" t="s">
         <v>73</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Y3" t="s">
         <v>74</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Z3" t="s">
         <v>2</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AA3" t="s">
         <v>3</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AB3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -854,136 +868,136 @@
       <c r="D4" t="s">
         <v>56</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>210</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>0.1</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>6</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>320</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>-1</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>-1</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>0.2</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>5</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>380</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>-2</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>-2</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>0.4</v>
       </c>
-      <c r="T4">
+      <c r="X4">
         <v>10</v>
       </c>
-      <c r="U4">
+      <c r="Y4">
         <v>190</v>
       </c>
-      <c r="V4">
+      <c r="Z4">
         <v>1</v>
       </c>
-      <c r="W4">
+      <c r="AA4">
         <v>1</v>
       </c>
-      <c r="X4">
+      <c r="AB4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>65</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>400</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>0.1</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>40</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>430</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>1</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>0.2</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>40</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>450</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>2</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>2</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>0.4</v>
       </c>
-      <c r="T5">
+      <c r="X5">
         <v>40</v>
       </c>
-      <c r="U5">
+      <c r="Y5">
         <v>500</v>
       </c>
-      <c r="V5">
+      <c r="Z5">
         <v>2</v>
       </c>
-      <c r="W5">
+      <c r="AA5">
         <v>1</v>
       </c>
-      <c r="X5">
+      <c r="AB5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -993,68 +1007,68 @@
       <c r="D6" t="s">
         <v>57</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>7</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>130</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>0.1</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>6</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>150</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>0.2</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>5</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>190</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <v>0.4</v>
       </c>
-      <c r="T6">
+      <c r="X6">
         <v>9</v>
       </c>
-      <c r="U6">
+      <c r="Y6">
         <v>110</v>
       </c>
-      <c r="V6">
+      <c r="Z6">
         <v>1</v>
       </c>
-      <c r="W6">
+      <c r="AA6">
         <v>1</v>
       </c>
-      <c r="X6">
+      <c r="AB6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1064,68 +1078,68 @@
       <c r="D7" t="s">
         <v>58</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>90</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>0.1</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>5</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>140</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>-1</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>0.2</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>4</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <v>170</v>
       </c>
-      <c r="Q7">
+      <c r="T7">
         <v>-1</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
         <v>0.4</v>
       </c>
-      <c r="T7">
+      <c r="X7">
         <v>7</v>
       </c>
-      <c r="U7">
-        <v>100</v>
-      </c>
-      <c r="V7">
+      <c r="Y7">
+        <v>100</v>
+      </c>
+      <c r="Z7">
         <v>1</v>
       </c>
-      <c r="W7">
+      <c r="AA7">
         <v>1</v>
       </c>
-      <c r="X7">
+      <c r="AB7">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1135,68 +1149,68 @@
       <c r="D8" t="s">
         <v>59</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="F8">
-        <v>120</v>
-      </c>
       <c r="G8">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>0.1</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>6</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>170</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>-1</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>-1</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>0.2</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>4</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <v>210</v>
       </c>
-      <c r="Q8">
+      <c r="T8">
         <v>-1</v>
       </c>
-      <c r="R8">
+      <c r="U8">
         <v>-2</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>0.4</v>
       </c>
-      <c r="T8">
+      <c r="X8">
         <v>8</v>
       </c>
-      <c r="U8">
-        <v>120</v>
-      </c>
-      <c r="V8">
+      <c r="Y8">
+        <v>120</v>
+      </c>
+      <c r="Z8">
         <v>2</v>
       </c>
-      <c r="W8">
+      <c r="AA8">
         <v>1</v>
       </c>
-      <c r="X8">
+      <c r="AB8">
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1206,68 +1220,68 @@
       <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>80</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>0.1</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="K9">
-        <v>100</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
       <c r="M9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>0.2</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>4</v>
       </c>
-      <c r="P9">
+      <c r="S9">
         <v>140</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>0.4</v>
       </c>
-      <c r="T9">
+      <c r="X9">
         <v>7</v>
       </c>
-      <c r="U9">
+      <c r="Y9">
         <v>70</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
         <v>1</v>
       </c>
-      <c r="X9">
+      <c r="AB9">
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1277,68 +1291,68 @@
       <c r="D10">
         <v>11</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>90</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0.1</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>2</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>130</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>0.2</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>1</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <v>190</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>0.4</v>
       </c>
-      <c r="T10">
+      <c r="X10">
         <v>5</v>
       </c>
-      <c r="U10">
+      <c r="Y10">
         <v>80</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1348,68 +1362,68 @@
       <c r="D11">
         <v>20</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>180</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>0.1</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>3</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>240</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>-1</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>0.2</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>2</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>400</v>
       </c>
-      <c r="Q11">
+      <c r="T11">
         <v>-1</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>0.4</v>
       </c>
-      <c r="T11">
+      <c r="X11">
         <v>5</v>
       </c>
-      <c r="U11">
+      <c r="Y11">
         <v>160</v>
       </c>
-      <c r="V11">
+      <c r="Z11">
         <v>1</v>
       </c>
-      <c r="W11">
+      <c r="AA11">
         <v>1</v>
       </c>
-      <c r="X11">
+      <c r="AB11">
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>9</v>
       </c>
@@ -1419,68 +1433,68 @@
       <c r="D12">
         <v>14</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>6</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>40</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>0.1</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>5</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>60</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>0.2</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>4</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>70</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <v>0.4</v>
       </c>
-      <c r="T12">
+      <c r="X12">
         <v>8</v>
       </c>
-      <c r="U12">
+      <c r="Y12">
         <v>40</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1490,68 +1504,68 @@
       <c r="D13">
         <v>22</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>8</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>240</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>0.1</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>8</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>300</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>2</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>1</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>0.2</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>6</v>
       </c>
-      <c r="P13">
+      <c r="S13">
         <v>380</v>
       </c>
-      <c r="Q13">
+      <c r="T13">
         <v>-2</v>
       </c>
-      <c r="R13">
+      <c r="U13">
         <v>-2</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>0.4</v>
       </c>
-      <c r="T13">
+      <c r="X13">
         <v>9</v>
       </c>
-      <c r="U13">
+      <c r="Y13">
         <v>320</v>
       </c>
-      <c r="V13">
+      <c r="Z13">
         <v>2</v>
       </c>
-      <c r="W13">
+      <c r="AA13">
         <v>1</v>
       </c>
-      <c r="X13">
+      <c r="AB13">
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>11</v>
       </c>
@@ -1561,68 +1575,68 @@
       <c r="D14">
         <v>15</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>4</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>260</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>0.1</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>3</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>310</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <v>0.2</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <v>2</v>
       </c>
-      <c r="P14">
+      <c r="S14">
         <v>390</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
         <v>0.4</v>
       </c>
-      <c r="T14">
+      <c r="X14">
         <v>6</v>
       </c>
-      <c r="U14">
+      <c r="Y14">
         <v>220</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>12</v>
       </c>
@@ -1632,68 +1646,68 @@
       <c r="D15">
         <v>17</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>90</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>0.1</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>4</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>140</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>-1</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>-1</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>0.2</v>
       </c>
-      <c r="O15">
+      <c r="R15">
         <v>3</v>
       </c>
-      <c r="P15">
+      <c r="S15">
         <v>190</v>
       </c>
-      <c r="Q15">
+      <c r="T15">
         <v>-1</v>
       </c>
-      <c r="R15">
+      <c r="U15">
         <v>-1</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>0.4</v>
       </c>
-      <c r="T15">
+      <c r="X15">
         <v>7</v>
       </c>
-      <c r="U15">
+      <c r="Y15">
         <v>90</v>
       </c>
-      <c r="V15">
+      <c r="Z15">
         <v>1</v>
       </c>
-      <c r="W15">
+      <c r="AA15">
         <v>1</v>
       </c>
-      <c r="X15">
+      <c r="AB15">
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>13</v>
       </c>
@@ -1703,68 +1717,68 @@
       <c r="D16">
         <v>18</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>70</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>0.1</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>5</v>
       </c>
-      <c r="K16">
-        <v>120</v>
-      </c>
-      <c r="L16">
+      <c r="M16">
+        <v>120</v>
+      </c>
+      <c r="N16">
         <v>-2</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>-1</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>0.2</v>
       </c>
-      <c r="O16">
+      <c r="R16">
         <v>3</v>
       </c>
-      <c r="P16">
+      <c r="S16">
         <v>160</v>
       </c>
-      <c r="Q16">
+      <c r="T16">
         <v>-2</v>
       </c>
-      <c r="R16">
+      <c r="U16">
         <v>-1</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>0.4</v>
       </c>
-      <c r="T16">
+      <c r="X16">
         <v>8</v>
       </c>
-      <c r="U16">
+      <c r="Y16">
         <v>80</v>
       </c>
-      <c r="V16">
+      <c r="Z16">
         <v>2</v>
       </c>
-      <c r="W16">
+      <c r="AA16">
         <v>2</v>
       </c>
-      <c r="X16">
+      <c r="AB16">
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>14</v>
       </c>
@@ -1774,68 +1788,68 @@
       <c r="D17">
         <v>21</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>21</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>270</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>0.1</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>18</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>340</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <v>0.2</v>
       </c>
-      <c r="O17">
+      <c r="R17">
         <v>16</v>
       </c>
-      <c r="P17">
+      <c r="S17">
         <v>410</v>
       </c>
-      <c r="Q17">
+      <c r="T17">
         <v>-1</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
         <v>0.4</v>
       </c>
-      <c r="T17">
+      <c r="X17">
         <v>24</v>
       </c>
-      <c r="U17">
+      <c r="Y17">
         <v>260</v>
       </c>
-      <c r="V17">
+      <c r="Z17">
         <v>1</v>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>15</v>
       </c>
@@ -1845,68 +1859,68 @@
       <c r="D18">
         <v>23</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>8</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>380</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>0.1</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>7</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>420</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>-1</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>0.2</v>
       </c>
-      <c r="O18">
+      <c r="R18">
         <v>5</v>
       </c>
-      <c r="P18">
+      <c r="S18">
         <v>490</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
         <v>-2</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>0.4</v>
       </c>
-      <c r="T18">
+      <c r="X18">
         <v>10</v>
       </c>
-      <c r="U18">
+      <c r="Y18">
         <v>360</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
         <v>2</v>
       </c>
-      <c r="X18">
+      <c r="AB18">
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>16</v>
       </c>
@@ -1916,68 +1930,68 @@
       <c r="D19">
         <v>24</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>18</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1100</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>0.1</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>16</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>1250</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>-2</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>0.2</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <v>12</v>
       </c>
-      <c r="P19">
+      <c r="S19">
         <v>1350</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
         <v>-2</v>
       </c>
-      <c r="S19">
+      <c r="V19">
         <v>0.4</v>
       </c>
-      <c r="T19">
+      <c r="X19">
         <v>22</v>
       </c>
-      <c r="U19">
+      <c r="Y19">
         <v>950</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
         <v>2</v>
       </c>
-      <c r="X19">
+      <c r="AB19">
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>17</v>
       </c>
@@ -1987,68 +2001,68 @@
       <c r="D20">
         <v>26</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>16</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>900</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>0.1</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>15</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>950</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>0.2</v>
       </c>
-      <c r="O20">
+      <c r="R20">
         <v>12</v>
       </c>
-      <c r="P20">
+      <c r="S20">
         <v>1000</v>
       </c>
-      <c r="Q20">
+      <c r="T20">
         <v>-2</v>
       </c>
-      <c r="R20">
+      <c r="U20">
         <v>-2</v>
       </c>
-      <c r="S20">
+      <c r="V20">
         <v>0.4</v>
       </c>
-      <c r="T20">
+      <c r="X20">
         <v>18</v>
       </c>
-      <c r="U20">
+      <c r="Y20">
         <v>820</v>
       </c>
-      <c r="V20">
+      <c r="Z20">
         <v>2</v>
       </c>
-      <c r="W20">
+      <c r="AA20">
         <v>1</v>
       </c>
-      <c r="X20">
+      <c r="AB20">
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>18</v>
       </c>
@@ -2058,68 +2072,68 @@
       <c r="D21">
         <v>27</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>17</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>280</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>0.1</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>15</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>390</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>-2</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>-1</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>0.2</v>
       </c>
-      <c r="O21">
+      <c r="R21">
         <v>13</v>
       </c>
-      <c r="P21">
+      <c r="S21">
         <v>430</v>
       </c>
-      <c r="Q21">
+      <c r="T21">
         <v>-3</v>
       </c>
-      <c r="R21">
+      <c r="U21">
         <v>-3</v>
       </c>
-      <c r="S21">
+      <c r="V21">
         <v>0.4</v>
       </c>
-      <c r="T21">
+      <c r="X21">
         <v>19</v>
       </c>
-      <c r="U21">
+      <c r="Y21">
         <v>300</v>
       </c>
-      <c r="V21">
+      <c r="Z21">
         <v>2</v>
       </c>
-      <c r="W21">
+      <c r="AA21">
         <v>1</v>
       </c>
-      <c r="X21">
+      <c r="AB21">
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>19</v>
       </c>
@@ -2129,68 +2143,68 @@
       <c r="D22" t="s">
         <v>61</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>8</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>160</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>0.1</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>7</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>190</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>-1</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>0.2</v>
       </c>
-      <c r="O22">
+      <c r="R22">
         <v>6</v>
       </c>
-      <c r="P22">
+      <c r="S22">
         <v>220</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
         <v>-1</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>0.4</v>
       </c>
-      <c r="T22">
+      <c r="X22">
         <v>10</v>
       </c>
-      <c r="U22">
+      <c r="Y22">
         <v>150</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
         <v>2</v>
       </c>
-      <c r="X22">
+      <c r="AB22">
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>20</v>
       </c>
@@ -2200,68 +2214,68 @@
       <c r="D23">
         <v>29</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>20</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>340</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>0.1</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>18</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>420</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>-1</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>-1</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>0.2</v>
       </c>
-      <c r="O23">
+      <c r="R23">
         <v>16</v>
       </c>
-      <c r="P23">
+      <c r="S23">
         <v>480</v>
       </c>
-      <c r="Q23">
+      <c r="T23">
         <v>-2</v>
       </c>
-      <c r="R23">
+      <c r="U23">
         <v>-2</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>0.4</v>
       </c>
-      <c r="T23">
+      <c r="X23">
         <v>22</v>
       </c>
-      <c r="U23">
+      <c r="Y23">
         <v>350</v>
       </c>
-      <c r="V23">
+      <c r="Z23">
         <v>2</v>
       </c>
-      <c r="W23">
+      <c r="AA23">
         <v>1</v>
       </c>
-      <c r="X23">
+      <c r="AB23">
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>21</v>
       </c>
@@ -2271,68 +2285,68 @@
       <c r="D24">
         <v>25</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>4</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>60</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>0.1</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>3</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>90</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>-1</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>0.2</v>
       </c>
-      <c r="O24">
+      <c r="R24">
         <v>2</v>
       </c>
-      <c r="P24">
+      <c r="S24">
         <v>130</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>-1</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>0.4</v>
       </c>
-      <c r="T24">
+      <c r="X24">
         <v>6</v>
       </c>
-      <c r="U24">
+      <c r="Y24">
         <v>70</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
         <v>2</v>
       </c>
-      <c r="X24">
+      <c r="AB24">
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>22</v>
       </c>
@@ -2342,68 +2356,68 @@
       <c r="D25">
         <v>31</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>15</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>180</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>0.1</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>14</v>
       </c>
-      <c r="K25">
-        <v>200</v>
-      </c>
-      <c r="L25">
+      <c r="M25">
+        <v>200</v>
+      </c>
+      <c r="N25">
         <v>-2</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>-2</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>0.2</v>
       </c>
-      <c r="O25">
+      <c r="R25">
         <v>12</v>
       </c>
-      <c r="P25">
+      <c r="S25">
         <v>270</v>
       </c>
-      <c r="Q25">
+      <c r="T25">
         <v>-3</v>
       </c>
-      <c r="R25">
+      <c r="U25">
         <v>-3</v>
       </c>
-      <c r="S25">
+      <c r="V25">
         <v>0.4</v>
       </c>
-      <c r="T25">
+      <c r="X25">
         <v>17</v>
       </c>
-      <c r="U25">
-        <v>200</v>
-      </c>
-      <c r="V25">
+      <c r="Y25">
+        <v>200</v>
+      </c>
+      <c r="Z25">
         <v>2</v>
       </c>
-      <c r="W25">
+      <c r="AA25">
         <v>2</v>
       </c>
-      <c r="X25">
+      <c r="AB25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>23</v>
       </c>
@@ -2413,68 +2427,68 @@
       <c r="D26">
         <v>32</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>16</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>600</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>0.1</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>14</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>690</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
         <v>-1</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>0.2</v>
       </c>
-      <c r="O26">
+      <c r="R26">
         <v>11</v>
       </c>
-      <c r="P26">
+      <c r="S26">
         <v>790</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
         <v>-2</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <v>0.4</v>
       </c>
-      <c r="T26">
+      <c r="X26">
         <v>19</v>
       </c>
-      <c r="U26">
+      <c r="Y26">
         <v>620</v>
       </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
         <v>2</v>
       </c>
-      <c r="X26">
+      <c r="AB26">
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>24</v>
       </c>
@@ -2484,68 +2498,68 @@
       <c r="D27">
         <v>26</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>8</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>290</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>0.1</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>7</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>360</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>-1</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>0.2</v>
       </c>
-      <c r="O27">
+      <c r="R27">
         <v>5</v>
       </c>
-      <c r="P27">
+      <c r="S27">
         <v>490</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
         <v>-2</v>
       </c>
-      <c r="S27">
+      <c r="V27">
         <v>0.4</v>
       </c>
-      <c r="T27">
+      <c r="X27">
         <v>10</v>
       </c>
-      <c r="U27">
+      <c r="Y27">
         <v>300</v>
       </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
         <v>1</v>
       </c>
-      <c r="X27">
+      <c r="AB27">
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>25</v>
       </c>
@@ -2555,68 +2569,68 @@
       <c r="D28">
         <v>30</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>3</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>20</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>0.1</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>2</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>30</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
       <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
         <v>0.2</v>
       </c>
-      <c r="O28">
+      <c r="R28">
         <v>1</v>
       </c>
-      <c r="P28">
+      <c r="S28">
         <v>50</v>
       </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
         <v>0.4</v>
       </c>
-      <c r="T28">
+      <c r="X28">
         <v>5</v>
       </c>
-      <c r="U28">
+      <c r="Y28">
         <v>20</v>
       </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>26</v>
       </c>
@@ -2626,68 +2640,68 @@
       <c r="D29" t="s">
         <v>63</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>14</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>280</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>0.1</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>12</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>380</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>-1</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>-1</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>0.2</v>
       </c>
-      <c r="O29">
+      <c r="R29">
         <v>10</v>
       </c>
-      <c r="P29">
+      <c r="S29">
         <v>470</v>
       </c>
-      <c r="Q29">
+      <c r="T29">
         <v>-2</v>
       </c>
-      <c r="R29">
+      <c r="U29">
         <v>-2</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>0.4</v>
       </c>
-      <c r="T29">
+      <c r="X29">
         <v>16</v>
       </c>
-      <c r="U29">
+      <c r="Y29">
         <v>290</v>
       </c>
-      <c r="V29">
+      <c r="Z29">
         <v>2</v>
       </c>
-      <c r="W29">
+      <c r="AA29">
         <v>2</v>
       </c>
-      <c r="X29">
+      <c r="AB29">
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>27</v>
       </c>
@@ -2697,68 +2711,68 @@
       <c r="D30" t="s">
         <v>63</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>9</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>60</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>0.1</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>8</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>90</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
         <v>-1</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>0.2</v>
       </c>
-      <c r="O30">
+      <c r="R30">
         <v>7</v>
       </c>
-      <c r="P30">
+      <c r="S30">
         <v>130</v>
       </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
         <v>-2</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>0.4</v>
       </c>
-      <c r="T30">
+      <c r="X30">
         <v>10</v>
       </c>
-      <c r="U30">
+      <c r="Y30">
         <v>60</v>
       </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
         <v>1</v>
       </c>
-      <c r="X30">
+      <c r="AB30">
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>28</v>
       </c>
@@ -2768,68 +2782,68 @@
       <c r="D31" t="s">
         <v>63</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>7</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>50</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>0.1</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>6</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>70</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
       <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
         <v>0.2</v>
       </c>
-      <c r="O31">
+      <c r="R31">
         <v>5</v>
       </c>
-      <c r="P31">
+      <c r="S31">
         <v>80</v>
       </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
         <v>-1</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>0.4</v>
       </c>
-      <c r="T31">
+      <c r="X31">
         <v>9</v>
       </c>
-      <c r="U31">
+      <c r="Y31">
         <v>50</v>
       </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
         <v>1</v>
       </c>
-      <c r="X31">
+      <c r="AB31">
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>29</v>
       </c>
@@ -2839,68 +2853,68 @@
       <c r="D32" t="s">
         <v>63</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>8</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>40</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>0.1</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>7</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>60</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
         <v>-1</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>0.2</v>
       </c>
-      <c r="O32">
+      <c r="R32">
         <v>5</v>
       </c>
-      <c r="P32">
+      <c r="S32">
         <v>110</v>
       </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
         <v>-2</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>0.4</v>
       </c>
-      <c r="T32">
+      <c r="X32">
         <v>10</v>
       </c>
-      <c r="U32">
+      <c r="Y32">
         <v>50</v>
       </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
         <v>2</v>
       </c>
-      <c r="X32">
+      <c r="AB32">
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>30</v>
       </c>
@@ -2910,68 +2924,68 @@
       <c r="D33" t="s">
         <v>63</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>2</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>30</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>0.1</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>2</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>20</v>
       </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
         <v>-1</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <v>0.2</v>
       </c>
-      <c r="O33">
+      <c r="R33">
         <v>1</v>
       </c>
-      <c r="P33">
+      <c r="S33">
         <v>50</v>
       </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
         <v>0.4</v>
       </c>
-      <c r="T33">
+      <c r="X33">
         <v>4</v>
       </c>
-      <c r="U33">
+      <c r="Y33">
         <v>30</v>
       </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
         <v>2</v>
       </c>
-      <c r="X33">
+      <c r="AB33">
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>31</v>
       </c>
@@ -2981,68 +2995,68 @@
       <c r="D34" t="s">
         <v>63</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>10</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>140</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>0.1</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>9</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>190</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>-2</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>-1</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>0.2</v>
       </c>
-      <c r="O34">
+      <c r="R34">
         <v>7</v>
       </c>
-      <c r="P34">
+      <c r="S34">
         <v>220</v>
       </c>
-      <c r="Q34">
+      <c r="T34">
         <v>-3</v>
       </c>
-      <c r="R34">
+      <c r="U34">
         <v>-1</v>
       </c>
-      <c r="S34">
+      <c r="V34">
         <v>0.4</v>
       </c>
-      <c r="T34">
+      <c r="X34">
         <v>12</v>
       </c>
-      <c r="U34">
+      <c r="Y34">
         <v>150</v>
       </c>
-      <c r="V34">
+      <c r="Z34">
         <v>2</v>
       </c>
-      <c r="W34">
+      <c r="AA34">
         <v>1</v>
       </c>
-      <c r="X34">
+      <c r="AB34">
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>32</v>
       </c>
@@ -3052,68 +3066,68 @@
       <c r="D35" t="s">
         <v>63</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>6</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>340</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>0.1</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>5</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>370</v>
       </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
       <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
         <v>0.2</v>
       </c>
-      <c r="O35">
+      <c r="R35">
         <v>4</v>
       </c>
-      <c r="P35">
+      <c r="S35">
         <v>410</v>
       </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
         <v>-2</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>0.4</v>
       </c>
-      <c r="T35">
+      <c r="X35">
         <v>8</v>
       </c>
-      <c r="U35">
+      <c r="Y35">
         <v>360</v>
       </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
         <v>2</v>
       </c>
-      <c r="X35">
+      <c r="AB35">
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>33</v>
       </c>
@@ -3123,68 +3137,68 @@
       <c r="D36" t="s">
         <v>62</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>3</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>110</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
         <v>0.1</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>2</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>160</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>-1</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>-1</v>
       </c>
-      <c r="N36">
+      <c r="P36">
         <v>0.2</v>
       </c>
-      <c r="O36">
+      <c r="R36">
         <v>1</v>
       </c>
-      <c r="P36">
-        <v>200</v>
-      </c>
-      <c r="Q36">
+      <c r="S36">
+        <v>200</v>
+      </c>
+      <c r="T36">
         <v>-2</v>
       </c>
-      <c r="R36">
+      <c r="U36">
         <v>-2</v>
       </c>
-      <c r="S36">
+      <c r="V36">
         <v>0.4</v>
       </c>
-      <c r="T36">
+      <c r="X36">
         <v>5</v>
       </c>
-      <c r="U36">
-        <v>120</v>
-      </c>
-      <c r="V36">
+      <c r="Y36">
+        <v>120</v>
+      </c>
+      <c r="Z36">
         <v>2</v>
       </c>
-      <c r="W36">
+      <c r="AA36">
         <v>2</v>
       </c>
-      <c r="X36">
+      <c r="AB36">
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>34</v>
       </c>
@@ -3194,68 +3208,68 @@
       <c r="D37">
         <v>37</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>4</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>80</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>0.1</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>3</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>90</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
       <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
         <v>0.2</v>
       </c>
-      <c r="O37">
+      <c r="R37">
         <v>2</v>
       </c>
-      <c r="P37">
+      <c r="S37">
         <v>130</v>
       </c>
-      <c r="Q37">
+      <c r="T37">
         <v>-1</v>
       </c>
-      <c r="R37">
+      <c r="U37">
         <v>-1</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>0.4</v>
       </c>
-      <c r="T37">
+      <c r="X37">
         <v>5</v>
       </c>
-      <c r="U37">
+      <c r="Y37">
         <v>90</v>
       </c>
-      <c r="V37">
+      <c r="Z37">
         <v>1</v>
       </c>
-      <c r="W37">
+      <c r="AA37">
         <v>1</v>
       </c>
-      <c r="X37">
+      <c r="AB37">
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>35</v>
       </c>
@@ -3265,68 +3279,68 @@
       <c r="D38">
         <v>38</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>5</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>210</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>0.1</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>4</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>240</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
       <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
         <v>0.2</v>
       </c>
-      <c r="O38">
+      <c r="R38">
         <v>3</v>
       </c>
-      <c r="P38">
+      <c r="S38">
         <v>280</v>
       </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
         <v>0.4</v>
       </c>
-      <c r="T38">
+      <c r="X38">
         <v>6</v>
       </c>
-      <c r="U38">
+      <c r="Y38">
         <v>220</v>
       </c>
-      <c r="V38">
+      <c r="Z38">
         <v>2</v>
       </c>
-      <c r="W38">
+      <c r="AA38">
         <v>1</v>
       </c>
-      <c r="X38">
+      <c r="AB38">
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>36</v>
       </c>
@@ -3336,68 +3350,68 @@
       <c r="D39">
         <v>38</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>3</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>70</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>0.1</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>2</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>80</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
         <v>-1</v>
       </c>
-      <c r="N39">
+      <c r="P39">
         <v>0.2</v>
       </c>
-      <c r="O39">
+      <c r="R39">
         <v>1</v>
       </c>
-      <c r="P39">
+      <c r="S39">
         <v>110</v>
       </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
         <v>-1</v>
       </c>
-      <c r="S39">
+      <c r="V39">
         <v>0.4</v>
       </c>
-      <c r="T39">
+      <c r="X39">
         <v>4</v>
       </c>
-      <c r="U39">
+      <c r="Y39">
         <v>70</v>
       </c>
-      <c r="V39">
+      <c r="Z39">
         <v>1</v>
       </c>
-      <c r="W39">
+      <c r="AA39">
         <v>2</v>
       </c>
-      <c r="X39">
+      <c r="AB39">
         <v>0.01</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>37</v>
       </c>
@@ -3407,68 +3421,68 @@
       <c r="D40">
         <v>38</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>3</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>50</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>0.1</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>2</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>60</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <v>-1</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
         <v>0.2</v>
       </c>
-      <c r="O40">
+      <c r="R40">
         <v>1</v>
       </c>
-      <c r="P40">
-        <v>100</v>
-      </c>
-      <c r="Q40">
+      <c r="S40">
+        <v>100</v>
+      </c>
+      <c r="T40">
         <v>-1</v>
       </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
         <v>0.4</v>
       </c>
-      <c r="T40">
+      <c r="X40">
         <v>4</v>
       </c>
-      <c r="U40">
+      <c r="Y40">
         <v>60</v>
       </c>
-      <c r="V40">
+      <c r="Z40">
         <v>1</v>
       </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>38</v>
       </c>
@@ -3478,68 +3492,68 @@
       <c r="D41" t="s">
         <v>64</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>3</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>90</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>0.1</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>2</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>170</v>
       </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
       <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
         <v>0.2</v>
       </c>
-      <c r="O41">
+      <c r="R41">
         <v>1</v>
       </c>
-      <c r="P41">
+      <c r="S41">
         <v>240</v>
       </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
         <v>0.4</v>
       </c>
-      <c r="T41">
+      <c r="X41">
         <v>4</v>
       </c>
-      <c r="U41">
-        <v>100</v>
-      </c>
-      <c r="V41">
+      <c r="Y41">
+        <v>100</v>
+      </c>
+      <c r="Z41">
         <v>2</v>
       </c>
-      <c r="W41">
+      <c r="AA41">
         <v>1</v>
       </c>
-      <c r="X41">
+      <c r="AB41">
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>39</v>
       </c>
@@ -3549,68 +3563,68 @@
       <c r="D42">
         <v>44</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>3</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>60</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
         <v>0.1</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>2</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>90</v>
       </c>
-      <c r="L42">
+      <c r="N42">
         <v>-1</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <v>-1</v>
       </c>
-      <c r="N42">
+      <c r="P42">
         <v>0.2</v>
       </c>
-      <c r="O42">
+      <c r="R42">
         <v>1</v>
       </c>
-      <c r="P42">
+      <c r="S42">
         <v>160</v>
       </c>
-      <c r="Q42">
+      <c r="T42">
         <v>-2</v>
       </c>
-      <c r="R42">
+      <c r="U42">
         <v>-2</v>
       </c>
-      <c r="S42">
+      <c r="V42">
         <v>0.4</v>
       </c>
-      <c r="T42">
+      <c r="X42">
         <v>5</v>
       </c>
-      <c r="U42">
+      <c r="Y42">
         <v>90</v>
       </c>
-      <c r="V42">
+      <c r="Z42">
         <v>2</v>
       </c>
-      <c r="W42">
+      <c r="AA42">
         <v>2</v>
       </c>
-      <c r="X42">
+      <c r="AB42">
         <v>0.01</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>40</v>
       </c>
@@ -3620,68 +3634,68 @@
       <c r="D43">
         <v>44</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>3</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>45</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
         <v>0.1</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>2</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>60</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <v>-2</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <v>-1</v>
       </c>
-      <c r="N43">
+      <c r="P43">
         <v>0.2</v>
       </c>
-      <c r="O43">
+      <c r="R43">
         <v>1</v>
       </c>
-      <c r="P43">
+      <c r="S43">
         <v>130</v>
       </c>
-      <c r="Q43">
+      <c r="T43">
         <v>-3</v>
       </c>
-      <c r="R43">
+      <c r="U43">
         <v>-2</v>
       </c>
-      <c r="S43">
+      <c r="V43">
         <v>0.4</v>
       </c>
-      <c r="T43">
+      <c r="X43">
         <v>4</v>
       </c>
-      <c r="U43">
+      <c r="Y43">
         <v>60</v>
       </c>
-      <c r="V43">
+      <c r="Z43">
         <v>2</v>
       </c>
-      <c r="W43">
+      <c r="AA43">
         <v>1</v>
       </c>
-      <c r="X43">
+      <c r="AB43">
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>41</v>
       </c>
@@ -3691,68 +3705,68 @@
       <c r="D44">
         <v>44</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>4</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>65</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>0.1</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>3</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>70</v>
       </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
       <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
         <v>0.2</v>
       </c>
-      <c r="O44">
+      <c r="R44">
         <v>2</v>
       </c>
-      <c r="P44">
+      <c r="S44">
         <v>110</v>
       </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
         <v>0.4</v>
       </c>
-      <c r="T44">
+      <c r="X44">
         <v>5</v>
       </c>
-      <c r="U44">
+      <c r="Y44">
         <v>60</v>
       </c>
-      <c r="V44">
+      <c r="Z44">
         <v>1</v>
       </c>
-      <c r="W44">
+      <c r="AA44">
         <v>1</v>
       </c>
-      <c r="X44">
+      <c r="AB44">
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>42</v>
       </c>
@@ -3762,68 +3776,68 @@
       <c r="D45" t="s">
         <v>65</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>50</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>0.1</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>2</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>90</v>
       </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
       <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
         <v>0.2</v>
       </c>
-      <c r="O45">
+      <c r="R45">
         <v>1</v>
       </c>
-      <c r="P45">
-        <v>120</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
       <c r="S45">
+        <v>120</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
         <v>0.4</v>
       </c>
-      <c r="T45">
+      <c r="X45">
         <v>4</v>
       </c>
-      <c r="U45">
+      <c r="Y45">
         <v>50</v>
       </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>43</v>
       </c>
@@ -3833,68 +3847,68 @@
       <c r="D46">
         <v>46</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>3</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>70</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>0.1</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>2</v>
       </c>
-      <c r="K46">
-        <v>100</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
       <c r="M46">
+        <v>100</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
         <v>-1</v>
       </c>
-      <c r="N46">
+      <c r="P46">
         <v>0.2</v>
       </c>
-      <c r="O46">
+      <c r="R46">
         <v>1</v>
       </c>
-      <c r="P46">
+      <c r="S46">
         <v>140</v>
       </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
         <v>-2</v>
       </c>
-      <c r="S46">
+      <c r="V46">
         <v>0.4</v>
       </c>
-      <c r="T46">
+      <c r="X46">
         <v>5</v>
       </c>
-      <c r="U46">
+      <c r="Y46">
         <v>60</v>
       </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
         <v>2</v>
       </c>
-      <c r="X46">
+      <c r="AB46">
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>44</v>
       </c>
@@ -3904,53 +3918,53 @@
       <c r="D47">
         <v>46</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>2</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>35</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
         <v>0.1</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>1</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>70</v>
       </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
       <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
         <v>0.2</v>
       </c>
-      <c r="T47">
+      <c r="X47">
         <v>3</v>
       </c>
-      <c r="U47">
+      <c r="Y47">
         <v>30</v>
       </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
         <v>0.01</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>45</v>
       </c>
@@ -3960,87 +3974,87 @@
       <c r="D48">
         <v>46</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>2</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>40</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>0.1</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>1</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>60</v>
       </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
       <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
         <v>0.2</v>
       </c>
-      <c r="T48">
+      <c r="X48">
         <v>3</v>
       </c>
-      <c r="U48">
+      <c r="Y48">
         <v>30</v>
       </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>46</v>
       </c>
       <c r="C49" t="s">
         <v>54</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>1</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>30</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>0.1</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
         <v>150</v>
       </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
       <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
         <v>0.2</v>
       </c>
     </row>

--- a/Model_TopSim_RollerCoaster/RollerCoaster_Model_Definition.xlsx
+++ b/Model_TopSim_RollerCoaster/RollerCoaster_Model_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malteebner/Library/Mobile Documents/com~apple~CloudDocs/Master ETIT/10. Semester/Forschungsarbeit/Code Forschungsarbeit/Model_TopSim_RollerCoaster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB548049-4167-504E-92D0-EA514D70D6BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6E4274-6670-374A-9AA9-7E22328315E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FCED99B0-49FF-5541-B4A0-4C6030238B64}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{FCED99B0-49FF-5541-B4A0-4C6030238B64}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A15AD41-7732-DC45-B8B2-B8C789AA2988}">
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4914,21 +4914,21 @@
         <v>150</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E29:E47" si="3">E32-D31</f>
+        <f t="shared" ref="E31:E47" si="3">E32-D31</f>
         <v>-4300</v>
       </c>
       <c r="H31">
         <v>100</v>
       </c>
       <c r="I31">
-        <f t="shared" ref="I29:I44" si="4">I32-H31</f>
+        <f t="shared" ref="I31:I44" si="4">I32-H31</f>
         <v>-2120</v>
       </c>
       <c r="L31">
         <v>100</v>
       </c>
       <c r="M31">
-        <f t="shared" ref="M29:M42" si="5">M32-L31</f>
+        <f t="shared" ref="M31:M42" si="5">M32-L31</f>
         <v>-2050</v>
       </c>
     </row>

--- a/Model_TopSim_RollerCoaster/RollerCoaster_Model_Definition.xlsx
+++ b/Model_TopSim_RollerCoaster/RollerCoaster_Model_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malteebner/Library/Mobile Documents/com~apple~CloudDocs/Master ETIT/10. Semester/Forschungsarbeit/Code Forschungsarbeit/Model_TopSim_RollerCoaster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6E4274-6670-374A-9AA9-7E22328315E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFCB8E5-D29D-484A-8B45-7A1DE714EE47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{FCED99B0-49FF-5541-B4A0-4C6030238B64}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16780" activeTab="1" xr2:uid="{FCED99B0-49FF-5541-B4A0-4C6030238B64}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -617,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A15AD41-7732-DC45-B8B2-B8C789AA2988}">
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
@@ -4067,8 +4067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F7CF45-058D-1742-8026-DA8F96C71A09}">
   <dimension ref="A1:V137"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="83" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="83" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5673,14 +5673,14 @@
         <v>200</v>
       </c>
       <c r="G56">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="H56">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56:I65" si="9">H56+I55</f>
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="K56">
         <v>-1</v>
@@ -5708,14 +5708,14 @@
         <v>400</v>
       </c>
       <c r="G57">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="H57">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="I57">
         <f t="shared" si="9"/>
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K57">
         <v>-2</v>
@@ -5743,14 +5743,14 @@
         <v>600</v>
       </c>
       <c r="G58">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="H58">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="I58">
         <f t="shared" si="9"/>
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="K58">
         <v>-3</v>
@@ -5778,14 +5778,14 @@
         <v>850</v>
       </c>
       <c r="G59">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="H59">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="I59">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="K59">
         <v>-4</v>
@@ -5813,14 +5813,14 @@
         <v>1100</v>
       </c>
       <c r="G60">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="H60">
         <v>75</v>
       </c>
       <c r="I60">
         <f t="shared" si="9"/>
-        <v>575</v>
+        <v>300</v>
       </c>
       <c r="K60">
         <v>-5</v>
@@ -5848,14 +5848,14 @@
         <v>1350</v>
       </c>
       <c r="G61">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H61">
         <v>75</v>
       </c>
       <c r="I61">
         <f t="shared" si="9"/>
-        <v>650</v>
+        <v>375</v>
       </c>
       <c r="K61">
         <v>-6</v>
@@ -5883,14 +5883,14 @@
         <v>1650</v>
       </c>
       <c r="G62">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="H62">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="I62">
         <f t="shared" si="9"/>
-        <v>725</v>
+        <v>500</v>
       </c>
       <c r="K62">
         <v>-7</v>
@@ -5918,14 +5918,14 @@
         <v>1950</v>
       </c>
       <c r="G63">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="H63">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="I63">
         <f t="shared" si="9"/>
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="K63">
         <v>-8</v>
@@ -5953,14 +5953,14 @@
         <v>2250</v>
       </c>
       <c r="G64">
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="H64">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="I64">
         <f t="shared" si="9"/>
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="K64" t="s">
         <v>68</v>
@@ -5988,10 +5988,10 @@
         <v>2550</v>
       </c>
       <c r="G65">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="H65">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="I65">
         <f t="shared" si="9"/>

--- a/Model_TopSim_RollerCoaster/RollerCoaster_Model_Definition.xlsx
+++ b/Model_TopSim_RollerCoaster/RollerCoaster_Model_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malteebner/Library/Mobile Documents/com~apple~CloudDocs/Master ETIT/10. Semester/Forschungsarbeit/Code Forschungsarbeit/Model_TopSim_RollerCoaster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFCB8E5-D29D-484A-8B45-7A1DE714EE47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86854D53-D0C0-7844-8707-5679872CE8AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16780" activeTab="1" xr2:uid="{FCED99B0-49FF-5541-B4A0-4C6030238B64}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16680" xr2:uid="{FCED99B0-49FF-5541-B4A0-4C6030238B64}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -617,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A15AD41-7732-DC45-B8B2-B8C789AA2988}">
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
@@ -4067,7 +4067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F7CF45-058D-1742-8026-DA8F96C71A09}">
   <dimension ref="A1:V137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="83" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="83" workbookViewId="0">
       <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>

--- a/Model_TopSim_RollerCoaster/RollerCoaster_Model_Definition.xlsx
+++ b/Model_TopSim_RollerCoaster/RollerCoaster_Model_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malteebner/Library/Mobile Documents/com~apple~CloudDocs/Master ETIT/10. Semester/Forschungsarbeit/Code Forschungsarbeit/Model_TopSim_RollerCoaster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86854D53-D0C0-7844-8707-5679872CE8AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0875EECC-E1DD-0640-A123-9ED084371FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16680" xr2:uid="{FCED99B0-49FF-5541-B4A0-4C6030238B64}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25060" windowHeight="16680" activeTab="1" xr2:uid="{FCED99B0-49FF-5541-B4A0-4C6030238B64}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A15AD41-7732-DC45-B8B2-B8C789AA2988}">
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4067,8 +4067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F7CF45-058D-1742-8026-DA8F96C71A09}">
   <dimension ref="A1:V137"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="83" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Model_TopSim_RollerCoaster/RollerCoaster_Model_Definition.xlsx
+++ b/Model_TopSim_RollerCoaster/RollerCoaster_Model_Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malteebner/Library/Mobile Documents/com~apple~CloudDocs/Master ETIT/10. Semester/Forschungsarbeit/Code Forschungsarbeit/Model_TopSim_RollerCoaster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AFC39D-1BE6-E645-9C83-51D27841E422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02ADA2A-2CB0-5042-AD22-AD3A4D2FFF89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25060" windowHeight="16680" activeTab="2" xr2:uid="{FCED99B0-49FF-5541-B4A0-4C6030238B64}"/>
   </bookViews>
@@ -1119,7 +1119,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>bonus(technology)</a:t>
+              <a:t>bonus (technology index)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1965,6 +1965,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> bonus (quality index)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12775,7 +12800,7 @@
   <dimension ref="B1:O146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O20"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Model_TopSim_RollerCoaster/RollerCoaster_Model_Definition.xlsx
+++ b/Model_TopSim_RollerCoaster/RollerCoaster_Model_Definition.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malteebner/Library/Mobile Documents/com~apple~CloudDocs/Master ETIT/10. Semester/Forschungsarbeit/Code Forschungsarbeit/Model_TopSim_RollerCoaster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02ADA2A-2CB0-5042-AD22-AD3A4D2FFF89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54711BE-6952-0D4E-BD57-1CF701E0EA73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25060" windowHeight="16680" activeTab="2" xr2:uid="{FCED99B0-49FF-5541-B4A0-4C6030238B64}"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="25060" windowHeight="14680" activeTab="2" xr2:uid="{FCED99B0-49FF-5541-B4A0-4C6030238B64}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="Losses" sheetId="2" r:id="rId2"/>
     <sheet name="graphs" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">graphs!$B$2:$B$27</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">graphs!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">graphs!$C$2:$C$27</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -515,7 +520,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -538,12 +543,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF8DA6CE"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFADD2D"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
@@ -632,62 +631,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>bonus (duration)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -933,6 +877,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>duration</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> [weeks]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -998,6 +1001,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>duration bonus</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1098,62 +1156,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>bonus (technology index)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1805,6 +1808,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>technology index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1870,6 +1928,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>technology bonus</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1964,62 +2077,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> bonus (quality index)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2671,6 +2729,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>quality index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2736,6 +2849,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>quality bonus</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -12799,8 +12967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D26305-A3E2-844B-8BC7-1F2ED4D844EA}">
   <dimension ref="B1:O146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
